--- a/results/results_processed.xlsx
+++ b/results/results_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mak/Documents/thesis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABDCFDC-14D9-B04C-AC02-D77C5CBCA9AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B8FADE-06C3-8245-A120-5A2932CD2634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="574">
   <si>
     <t>Усвоение 1</t>
   </si>
@@ -1169,15 +1169,9 @@
     <t>maviru = костыль?</t>
   </si>
   <si>
-    <t>value_x</t>
-  </si>
-  <si>
     <t>beskadu</t>
   </si>
   <si>
-    <t>value_y</t>
-  </si>
-  <si>
     <t>sinike</t>
   </si>
   <si>
@@ -1187,12 +1181,6 @@
     <t>buside</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
     <t>beside</t>
   </si>
   <si>
@@ -1226,9 +1214,6 @@
     <t>repane</t>
   </si>
   <si>
-    <t>variant</t>
-  </si>
-  <si>
     <t>beskadu = удочка?</t>
   </si>
   <si>
@@ -1253,9 +1238,6 @@
     <t>oveded</t>
   </si>
   <si>
-    <t>afc_answer_sum</t>
-  </si>
-  <si>
     <t>nukene</t>
   </si>
   <si>
@@ -1274,18 +1256,12 @@
     <t>nukene = копилка?</t>
   </si>
   <si>
-    <t>afc_rt_mean</t>
-  </si>
-  <si>
     <t>Средняя скорость реакции в задании AFC</t>
   </si>
   <si>
     <t>erniku</t>
   </si>
   <si>
-    <t>recall_correct</t>
-  </si>
-  <si>
     <t>Количество точных ответов в задании recall (усвоение)</t>
   </si>
   <si>
@@ -1295,9 +1271,6 @@
     <t>telere</t>
   </si>
   <si>
-    <t>recall_first_rt_mean</t>
-  </si>
-  <si>
     <t>pentave</t>
   </si>
   <si>
@@ -1310,9 +1283,6 @@
     <t>tenove</t>
   </si>
   <si>
-    <t>recall_rt_mean</t>
-  </si>
-  <si>
     <t>pentave = колбаса?</t>
   </si>
   <si>
@@ -1325,9 +1295,6 @@
     <t>envede</t>
   </si>
   <si>
-    <t>recog_answers_sum</t>
-  </si>
-  <si>
     <t>sevade</t>
   </si>
   <si>
@@ -1352,9 +1319,6 @@
     <t>adiste = хобот?</t>
   </si>
   <si>
-    <t>recog_rt_mean</t>
-  </si>
-  <si>
     <t>mugalu = свисток?</t>
   </si>
   <si>
@@ -1373,9 +1337,6 @@
     <t>devine</t>
   </si>
   <si>
-    <t>recall_test_correct</t>
-  </si>
-  <si>
     <t>pikide</t>
   </si>
   <si>
@@ -1391,9 +1352,6 @@
     <t>pikide = стол?</t>
   </si>
   <si>
-    <t>recall_test_first_rt_mean</t>
-  </si>
-  <si>
     <t>Среднее время первого нажатия кнопки в задании recall (тест 1)</t>
   </si>
   <si>
@@ -1412,9 +1370,6 @@
     <t>darase</t>
   </si>
   <si>
-    <t>recall_test_rt_mean</t>
-  </si>
-  <si>
     <t>abadu = домино?</t>
   </si>
   <si>
@@ -1427,9 +1382,6 @@
     <t>enveku</t>
   </si>
   <si>
-    <t>sem_answers_sum</t>
-  </si>
-  <si>
     <t>Количество правильных ответов в задании semantic decision (тест 1)</t>
   </si>
   <si>
@@ -1448,9 +1400,6 @@
     <t>evintere</t>
   </si>
   <si>
-    <t>sem_rt_mean</t>
-  </si>
-  <si>
     <t>envepe</t>
   </si>
   <si>
@@ -1478,9 +1427,6 @@
     <t>feranu = наперсток?</t>
   </si>
   <si>
-    <t>recog2_answers_sum</t>
-  </si>
-  <si>
     <t>favuru</t>
   </si>
   <si>
@@ -1502,9 +1448,6 @@
     <t>loratine</t>
   </si>
   <si>
-    <t>recog2_rt_mean</t>
-  </si>
-  <si>
     <t>Среднее время реакции в задании recognition (тест 2)</t>
   </si>
   <si>
@@ -1517,9 +1460,6 @@
     <t>severe</t>
   </si>
   <si>
-    <t>recall_test2_correct</t>
-  </si>
-  <si>
     <t>savere = шашлык?</t>
   </si>
   <si>
@@ -1535,9 +1475,6 @@
     <t>sevede</t>
   </si>
   <si>
-    <t>recall_test2_first_rt_mean</t>
-  </si>
-  <si>
     <t>silvere</t>
   </si>
   <si>
@@ -1547,9 +1484,6 @@
     <t>pikide = микрофон?</t>
   </si>
   <si>
-    <t>recall_test2_rt_mean</t>
-  </si>
-  <si>
     <t>ovarde = компас?</t>
   </si>
   <si>
@@ -1565,9 +1499,6 @@
     <t>erfate</t>
   </si>
   <si>
-    <t>sem2_answers_sum</t>
-  </si>
-  <si>
     <t>eventre</t>
   </si>
   <si>
@@ -1587,9 +1518,6 @@
   </si>
   <si>
     <t>kavide</t>
-  </si>
-  <si>
-    <t>sem2_rt_mean</t>
   </si>
   <si>
     <t>beki</t>
@@ -1910,12 +1838,57 @@
 7	2
 </t>
   </si>
+  <si>
+    <t>Participant ID</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>AFC accuracy</t>
+  </si>
+  <si>
+    <t>AFC RT</t>
+  </si>
+  <si>
+    <t>Recall accuracy</t>
+  </si>
+  <si>
+    <t>Recall first RT</t>
+  </si>
+  <si>
+    <t>Recall last RT</t>
+  </si>
+  <si>
+    <t>Recognition accuracy</t>
+  </si>
+  <si>
+    <t>Recognition RT</t>
+  </si>
+  <si>
+    <t>Sem. decision accuracy</t>
+  </si>
+  <si>
+    <t>Sem. decision RT</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>SD_mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1958,8 +1931,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1996,8 +1992,74 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D3E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D3E9"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D3E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D3E9"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CCCD"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CCCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CCCD"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE3F4"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE3F4"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE3F4"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE3F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2020,11 +2082,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2075,26 +2146,70 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCFE3F4"/>
+      <color rgb="FFD9D3E9"/>
+      <color rgb="FFF5CCCD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2309,17 +2424,19 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2351,7 +2468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2371,13 +2488,13 @@
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2385,7 +2502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -2401,7 +2518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -2409,7 +2526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -2417,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -2425,7 +2542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
@@ -2433,7 +2550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -2441,7 +2558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
@@ -2453,13 +2570,13 @@
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -2467,7 +2584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>32</v>
       </c>
@@ -2475,7 +2592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -2483,7 +2600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
@@ -2491,7 +2608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
@@ -2499,7 +2616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
@@ -2507,7 +2624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
@@ -2608,7 +2725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -2670,7 +2787,7 @@
         <v>3.2448450000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2744,7 +2861,7 @@
         <v>2.7657949999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2904,7 +3021,7 @@
         <v>1.461665</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2978,7 +3095,7 @@
         <v>3.1278600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3052,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3123,7 +3240,7 @@
         <v>2.5989900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3194,7 +3311,7 @@
         <v>2.4058700000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3268,7 +3385,7 @@
         <v>2.5830350000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -3342,7 +3459,7 @@
         <v>2.5790950000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -3398,7 +3515,7 @@
         <v>1.540055</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -3478,7 +3595,7 @@
         <v>2.222315</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -3558,7 +3675,7 @@
         <v>3.8675700000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -3638,7 +3755,7 @@
         <v>3.338015</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -3718,7 +3835,7 @@
         <v>2.1211150000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -3792,7 +3909,7 @@
         <v>2.3370099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -3869,7 +3986,7 @@
         <v>3.6615700000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -3947,7 +4064,7 @@
         <v>2.7540049999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -4021,7 +4138,7 @@
         <v>3.7533249999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -4095,7 +4212,7 @@
         <v>3.4507650000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -4231,7 +4348,7 @@
         <v>2.365615</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -4311,7 +4428,7 @@
         <v>2.9616799999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -4388,7 +4505,7 @@
         <v>2.9347949999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -4545,7 +4662,7 @@
         <v>3.4280900000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -4702,7 +4819,7 @@
         <v>2.072495</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -4859,7 +4976,7 @@
         <v>3.2253500000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -4915,7 +5032,7 @@
         <v>3.5413899999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -5070,7 +5187,7 @@
         <v>2.12907</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -5221,7 +5338,7 @@
         <v>2.4085000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -6767,7 +6884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -6841,7 +6958,7 @@
         <v>0.48938999999999988</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6912,7 +7029,7 @@
         <v>0.48316999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6983,7 +7100,7 @@
         <v>1.129745</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -7143,7 +7260,7 @@
         <v>0.42307499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -7214,7 +7331,7 @@
         <v>0.77481999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -7288,7 +7405,7 @@
         <v>0.78113500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -7359,7 +7476,7 @@
         <v>0.61932500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -7436,7 +7553,7 @@
         <v>0.73732500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -7507,7 +7624,7 @@
         <v>0.87734000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -7563,7 +7680,7 @@
         <v>0.76265499999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -7637,7 +7754,7 @@
         <v>1.1039049999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -7711,7 +7828,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -7785,7 +7902,7 @@
         <v>0.39841500000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -7856,7 +7973,7 @@
         <v>1.046125</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -7930,7 +8047,7 @@
         <v>0.73901499999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -8001,7 +8118,7 @@
         <v>0.86329500000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -8072,7 +8189,7 @@
         <v>0.96823500000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -8143,7 +8260,7 @@
         <v>0.45772000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -8214,7 +8331,7 @@
         <v>0.88339999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -8270,7 +8387,7 @@
         <v>0.59290500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -8341,7 +8458,7 @@
         <v>0.49103000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -8406,7 +8523,7 @@
         <v>0.74094499999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -8477,7 +8594,7 @@
         <v>0.59631999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -8551,7 +8668,7 @@
         <v>0.79020500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -8622,7 +8739,7 @@
         <v>0.35537999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -8693,7 +8810,7 @@
         <v>1.1156950000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -8764,7 +8881,7 @@
         <v>1.217865</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -8832,7 +8949,7 @@
         <v>3.66974</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -8903,7 +9020,7 @@
         <v>0.51908500000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -8956,7 +9073,7 @@
         <v>0.309755</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -9027,7 +9144,7 @@
         <v>0.37585000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -9098,7 +9215,7 @@
         <v>0.89358500000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -9169,7 +9286,7 @@
         <v>0.75343000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -9240,7 +9357,7 @@
         <v>0.74895500000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -10746,7 +10863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -10824,7 +10941,7 @@
         <v>1.668445</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -11141,7 +11258,7 @@
         <v>0.94272999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -11218,7 +11335,7 @@
         <v>1.5224949999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -11372,7 +11489,7 @@
         <v>0.94969500000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -11449,7 +11566,7 @@
         <v>2.1251799999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -11529,7 +11646,7 @@
         <v>1.1961299999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -11585,7 +11702,7 @@
         <v>0.92715499999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -11823,7 +11940,7 @@
         <v>0.95799500000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -11900,7 +12017,7 @@
         <v>1.843145</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -11974,7 +12091,7 @@
         <v>1.75423</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -12131,7 +12248,7 @@
         <v>0.76305500000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -12202,7 +12319,7 @@
         <v>1.6689050000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -12282,7 +12399,7 @@
         <v>1.13306</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -12338,7 +12455,7 @@
         <v>1.503865</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -12415,7 +12532,7 @@
         <v>1.5585500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -12486,7 +12603,7 @@
         <v>1.550535</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -12640,7 +12757,7 @@
         <v>1.1483300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -12800,7 +12917,7 @@
         <v>1.38158</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -12877,7 +12994,7 @@
         <v>1.14314</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -12955,7 +13072,7 @@
         <v>1.2895799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -13032,7 +13149,7 @@
         <v>1.57707</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -13088,7 +13205,7 @@
         <v>2.1804399999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -13245,7 +13362,7 @@
         <v>0.98814999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -13323,7 +13440,7 @@
         <v>1.806805</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -13401,7 +13518,7 @@
         <v>1.4838</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -14947,7 +15064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -15021,7 +15138,7 @@
         <v>1.4624699999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -15101,7 +15218,7 @@
         <v>1.178755</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -15261,7 +15378,7 @@
         <v>1.37514</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -15341,7 +15458,7 @@
         <v>1.7464850000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -15415,7 +15532,7 @@
         <v>0.86172999999999988</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -15566,7 +15683,7 @@
         <v>1.6454599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -15646,12 +15763,12 @@
         <v>1.1057600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>152</v>
@@ -15663,7 +15780,7 @@
         <v>1.998645</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G11" s="12">
         <v>7</v>
@@ -15675,7 +15792,7 @@
         <v>6.1186150000000001</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K11" s="12" t="b">
         <v>1</v>
@@ -15684,7 +15801,7 @@
         <v>1.4383950000000001</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N11" s="12">
         <v>4</v>
@@ -15708,7 +15825,7 @@
         <v>1.161645</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="V11" s="12">
         <v>3</v>
@@ -15726,7 +15843,7 @@
         <v>0.87281500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -15737,7 +15854,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K12" s="12" t="b">
         <v>1</v>
@@ -15782,12 +15899,12 @@
         <v>1.109065</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>128</v>
@@ -15799,7 +15916,7 @@
         <v>2.023485</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G13" s="12">
         <v>3</v>
@@ -15811,7 +15928,7 @@
         <v>3.8789600000000002</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K13" s="12" t="b">
         <v>1</v>
@@ -15820,7 +15937,7 @@
         <v>1.6962550000000001</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N13" s="12">
         <v>4</v>
@@ -15844,7 +15961,7 @@
         <v>1.56223</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V13" s="12">
         <v>2</v>
@@ -15862,12 +15979,12 @@
         <v>1.4892700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>138</v>
@@ -15879,7 +15996,7 @@
         <v>1.3173699999999999</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G14" s="12">
         <v>3</v>
@@ -15891,7 +16008,7 @@
         <v>4.1358699999999997</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K14" s="12" t="b">
         <v>1</v>
@@ -15900,7 +16017,7 @@
         <v>1.03921</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N14" s="12">
         <v>1</v>
@@ -15924,7 +16041,7 @@
         <v>0.99875499999999995</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="V14" s="12">
         <v>3</v>
@@ -15942,12 +16059,12 @@
         <v>0.75549999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>172</v>
@@ -15959,7 +16076,7 @@
         <v>1.94485</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G15" s="12">
         <v>5</v>
@@ -15971,7 +16088,7 @@
         <v>5.1043599999999998</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K15" s="12" t="b">
         <v>1</v>
@@ -16001,7 +16118,7 @@
         <v>1.9526049999999999</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="V15" s="12">
         <v>6</v>
@@ -16019,12 +16136,12 @@
         <v>1.5112699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>49</v>
@@ -16036,7 +16153,7 @@
         <v>2.0550449999999998</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G16" s="12">
         <v>2</v>
@@ -16048,7 +16165,7 @@
         <v>3.0012400000000001</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K16" s="12" t="b">
         <v>1</v>
@@ -16057,7 +16174,7 @@
         <v>1.1900949999999999</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="N16" s="12">
         <v>4</v>
@@ -16081,7 +16198,7 @@
         <v>1.3611949999999999</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="V16" s="12">
         <v>3</v>
@@ -16104,7 +16221,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>103</v>
@@ -16116,7 +16233,7 @@
         <v>1.5757300000000001</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G17" s="14">
         <v>0</v>
@@ -16128,7 +16245,7 @@
         <v>3.69991</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K17" s="14" t="b">
         <v>1</v>
@@ -16137,7 +16254,7 @@
         <v>1.2641100000000001</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="N17" s="14">
         <v>0</v>
@@ -16161,7 +16278,7 @@
         <v>1.3312349999999999</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -16179,7 +16296,7 @@
         <v>0.97092500000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -16196,7 +16313,7 @@
         <v>1.8757950000000001</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G18" s="12">
         <v>2</v>
@@ -16208,7 +16325,7 @@
         <v>3.9672550000000002</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K18" s="12" t="b">
         <v>1</v>
@@ -16217,7 +16334,7 @@
         <v>1.2625649999999999</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N18" s="12">
         <v>2</v>
@@ -16241,7 +16358,7 @@
         <v>1.205465</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="V18" s="12">
         <v>2</v>
@@ -16288,7 +16405,7 @@
         <v>4.8894150000000014</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K19" s="14" t="b">
         <v>1</v>
@@ -16344,7 +16461,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>110</v>
@@ -16356,7 +16473,7 @@
         <v>1.2634000000000001</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G20" s="14">
         <v>0</v>
@@ -16368,7 +16485,7 @@
         <v>3.394695</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K20" s="14" t="b">
         <v>1</v>
@@ -16377,7 +16494,7 @@
         <v>1.046805</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N20" s="14">
         <v>0</v>
@@ -16401,7 +16518,7 @@
         <v>0.98209000000000002</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V20" s="14">
         <v>0</v>
@@ -16436,7 +16553,7 @@
         <v>1.572295</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G21" s="17">
         <v>2</v>
@@ -16448,7 +16565,7 @@
         <v>2.9841250000000001</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="K21" s="17" t="b">
         <v>1</v>
@@ -16457,7 +16574,7 @@
         <v>1.7346349999999999</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="N21" s="17">
         <v>2</v>
@@ -16481,7 +16598,7 @@
         <v>2.0969449999999998</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="V21" s="17">
         <v>1</v>
@@ -16499,18 +16616,18 @@
         <v>0.84365000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="K22" s="12" t="b">
         <v>0</v>
@@ -16555,12 +16672,12 @@
         <v>1.7856799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>211</v>
@@ -16572,7 +16689,7 @@
         <v>1.91798</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="G23" s="12">
         <v>4</v>
@@ -16584,7 +16701,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="K23" s="12" t="b">
         <v>1</v>
@@ -16593,7 +16710,7 @@
         <v>1.4835750000000001</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="N23" s="12">
         <v>2</v>
@@ -16617,7 +16734,7 @@
         <v>1.27996</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="V23" s="12">
         <v>3</v>
@@ -16635,7 +16752,7 @@
         <v>1.0239499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -16652,7 +16769,7 @@
         <v>1.9376549999999999</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="G24" s="12">
         <v>5</v>
@@ -16664,7 +16781,7 @@
         <v>5.2847050000000007</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="K24" s="12" t="b">
         <v>1</v>
@@ -16697,7 +16814,7 @@
         <v>1.47854</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="V24" s="12">
         <v>5</v>
@@ -16715,12 +16832,12 @@
         <v>1.782605</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>185</v>
@@ -16732,7 +16849,7 @@
         <v>1.8526100000000001</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="G25" s="12">
         <v>3</v>
@@ -16744,7 +16861,7 @@
         <v>3.6367400000000001</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="K25" s="12" t="b">
         <v>1</v>
@@ -16753,7 +16870,7 @@
         <v>1.5787500000000001</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="N25" s="12">
         <v>3</v>
@@ -16777,7 +16894,7 @@
         <v>1.932515</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="V25" s="12">
         <v>4</v>
@@ -16795,7 +16912,7 @@
         <v>1.6644950000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -16812,7 +16929,7 @@
         <v>1.5409999999999999</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="G26" s="12">
         <v>5</v>
@@ -16824,7 +16941,7 @@
         <v>6.5236999999999998</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="K26" s="12" t="b">
         <v>1</v>
@@ -16833,7 +16950,7 @@
         <v>1.7573350000000001</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="N26" s="12">
         <v>4</v>
@@ -16857,7 +16974,7 @@
         <v>1.6686799999999999</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="V26" s="12">
         <v>4</v>
@@ -16875,12 +16992,12 @@
         <v>1.05976</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>79</v>
@@ -16892,7 +17009,7 @@
         <v>2.07274</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="G27" s="12">
         <v>1</v>
@@ -16904,7 +17021,7 @@
         <v>3.9481350000000002</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="K27" s="12" t="b">
         <v>1</v>
@@ -16913,7 +17030,7 @@
         <v>1.0966450000000001</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="N27" s="12">
         <v>0</v>
@@ -16937,7 +17054,7 @@
         <v>1.0123450000000001</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="V27" s="12">
         <v>2</v>
@@ -16955,12 +17072,12 @@
         <v>1.6294200000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>195</v>
@@ -16972,7 +17089,7 @@
         <v>1.95468</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G28" s="12">
         <v>0</v>
@@ -16984,7 +17101,7 @@
         <v>3.11686</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="K28" s="12" t="b">
         <v>0</v>
@@ -16993,7 +17110,7 @@
         <v>1.25223</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="N28" s="12">
         <v>2</v>
@@ -17017,7 +17134,7 @@
         <v>2.0167950000000001</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="V28" s="12">
         <v>2</v>
@@ -17040,7 +17157,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>116</v>
@@ -17052,7 +17169,7 @@
         <v>1.6065199999999999</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
@@ -17064,7 +17181,7 @@
         <v>4.6503750000000004</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="K29" s="14" t="b">
         <v>1</v>
@@ -17073,7 +17190,7 @@
         <v>1.1978949999999999</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="N29" s="14">
         <v>0</v>
@@ -17097,7 +17214,7 @@
         <v>1.2498450000000001</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="V29" s="14">
         <v>0</v>
@@ -17115,7 +17232,7 @@
         <v>0.95523500000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -17132,7 +17249,7 @@
         <v>1.7464599999999999</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="G30" s="12">
         <v>4</v>
@@ -17153,7 +17270,7 @@
         <v>1.62975</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="N30" s="12">
         <v>2</v>
@@ -17177,7 +17294,7 @@
         <v>1.6963250000000001</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="V30" s="12">
         <v>6</v>
@@ -17200,7 +17317,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>135</v>
@@ -17212,7 +17329,7 @@
         <v>1.4479550000000001</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="G31" s="17">
         <v>0</v>
@@ -17224,7 +17341,7 @@
         <v>4.2739900000000004</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="K31" s="17" t="b">
         <v>1</v>
@@ -17233,7 +17350,7 @@
         <v>1.6118749999999999</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="N31" s="17">
         <v>2</v>
@@ -17257,7 +17374,7 @@
         <v>1.2802800000000001</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="V31" s="17">
         <v>1</v>
@@ -17275,7 +17392,7 @@
         <v>2.0969549999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -17286,7 +17403,7 @@
         <v>75</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="K32" s="12" t="b">
         <v>1</v>
@@ -17336,7 +17453,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>160</v>
@@ -17348,7 +17465,7 @@
         <v>1.669025</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G33" s="14">
         <v>5</v>
@@ -17360,7 +17477,7 @@
         <v>4.9409349999999996</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="K33" s="14" t="b">
         <v>1</v>
@@ -17369,7 +17486,7 @@
         <v>1.912255</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="N33" s="14">
         <v>0</v>
@@ -17393,7 +17510,7 @@
         <v>2.0981800000000002</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="V33" s="14">
         <v>0</v>
@@ -17411,12 +17528,12 @@
         <v>1.4223250000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>44</v>
@@ -17428,7 +17545,7 @@
         <v>1.7902849999999999</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="G34" s="12">
         <v>1</v>
@@ -17440,7 +17557,7 @@
         <v>5.2657550000000004</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="K34" s="12" t="b">
         <v>1</v>
@@ -17449,7 +17566,7 @@
         <v>1.685135</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="N34" s="12">
         <v>4</v>
@@ -17473,7 +17590,7 @@
         <v>1.6963999999999999</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="V34" s="12">
         <v>4</v>
@@ -17508,7 +17625,7 @@
         <v>2.1302400000000001</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="G35" s="17">
         <v>3</v>
@@ -17520,7 +17637,7 @@
         <v>5.5437250000000002</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="K35" s="17" t="b">
         <v>1</v>
@@ -17529,7 +17646,7 @@
         <v>1.8712150000000001</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="N35" s="17">
         <v>3</v>
@@ -17553,7 +17670,7 @@
         <v>1.9923150000000001</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="V35" s="17">
         <v>1</v>
@@ -17571,12 +17688,12 @@
         <v>1.0381149999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>59</v>
@@ -17588,7 +17705,7 @@
         <v>1.895605</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="G36" s="12">
         <v>4</v>
@@ -17600,7 +17717,7 @@
         <v>5.2002249999999997</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="K36" s="12" t="b">
         <v>1</v>
@@ -17609,7 +17726,7 @@
         <v>1.9780599999999999</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="N36" s="12">
         <v>1</v>
@@ -17633,7 +17750,7 @@
         <v>1.5301199999999999</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="V36" s="12">
         <v>2</v>
@@ -17651,12 +17768,12 @@
         <v>1.1382000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>96</v>
@@ -17668,7 +17785,7 @@
         <v>1.7881849999999999</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="G37" s="12">
         <v>1</v>
@@ -17680,7 +17797,7 @@
         <v>3.89872</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="K37" s="12" t="b">
         <v>1</v>
@@ -17689,7 +17806,7 @@
         <v>1.7136499999999999</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="N37" s="12">
         <v>2</v>
@@ -17713,7 +17830,7 @@
         <v>1.4332800000000001</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="V37" s="12">
         <v>2</v>
@@ -17736,7 +17853,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>40</v>
@@ -17748,7 +17865,7 @@
         <v>2.205365</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="G38" s="17">
         <v>1</v>
@@ -17760,7 +17877,7 @@
         <v>3.7757800000000001</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="K38" s="17" t="b">
         <v>1</v>
@@ -17769,7 +17886,7 @@
         <v>1.7163200000000001</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="N38" s="17">
         <v>0</v>
@@ -17793,7 +17910,7 @@
         <v>1.29515</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="V38" s="17">
         <v>1</v>
@@ -17816,7 +17933,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>131</v>
@@ -17828,7 +17945,7 @@
         <v>2.3201550000000002</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="G39" s="12">
         <v>2</v>
@@ -17840,7 +17957,7 @@
         <v>4.5072599999999996</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="K39" s="12" t="b">
         <v>1</v>
@@ -17849,7 +17966,7 @@
         <v>1.739805</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="N39" s="12">
         <v>2</v>
@@ -17873,7 +17990,7 @@
         <v>1.5794999999999999</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="V39" s="12">
         <v>2</v>
@@ -17908,7 +18025,7 @@
         <v>1.55904</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="G40" s="12">
         <v>5</v>
@@ -17920,7 +18037,7 @@
         <v>4.7291050000000006</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="K40" s="12" t="b">
         <v>1</v>
@@ -17929,7 +18046,7 @@
         <v>2.0967250000000002</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="N40" s="12">
         <v>4</v>
@@ -17973,7 +18090,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>90</v>
@@ -17985,7 +18102,7 @@
         <v>1.9552750000000001</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G41" s="12">
         <v>0</v>
@@ -17997,7 +18114,7 @@
         <v>3.1627399999999999</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="K41" s="12" t="b">
         <v>1</v>
@@ -18006,7 +18123,7 @@
         <v>1.3168800000000001</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="N41" s="12">
         <v>0</v>
@@ -18030,7 +18147,7 @@
         <v>1.24979</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="V41" s="12">
         <v>2</v>
@@ -18052,101 +18169,101 @@
       <c r="A42" s="11">
         <v>0</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26">
         <v>33</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35" t="s">
-        <v>566</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35">
+      <c r="E42" s="26"/>
+      <c r="F42" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26">
         <v>36</v>
       </c>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35" t="s">
-        <v>567</v>
-      </c>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35">
+      <c r="L42" s="26"/>
+      <c r="M42" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26">
         <v>32</v>
       </c>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35">
+      <c r="R42" s="26"/>
+      <c r="S42" s="26">
         <v>36</v>
       </c>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35" t="s">
-        <v>568</v>
-      </c>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35">
+      <c r="T42" s="26"/>
+      <c r="U42" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26">
         <v>31</v>
       </c>
-      <c r="Z42" s="35"/>
+      <c r="Z42" s="26"/>
     </row>
     <row r="43" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>1</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26">
         <v>1.8842736111111109</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35">
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26">
         <v>1.954428108119582</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="26">
         <v>4.7465600000000006</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35">
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26">
         <v>1.6177727500000001</v>
       </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35">
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26">
         <v>1.7912607499631119</v>
       </c>
-      <c r="P43" s="35">
+      <c r="P43" s="26">
         <v>3.9114765</v>
       </c>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1.719340125</v>
       </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35">
+      <c r="S43" s="26"/>
+      <c r="T43" s="26">
         <v>1.5314933749999999</v>
       </c>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35">
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26">
         <v>1.669292000000046</v>
       </c>
-      <c r="X43" s="35">
+      <c r="X43" s="26">
         <v>3.9349231250000001</v>
       </c>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="36">
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="27">
         <f>AVERAGEA(Z2:Z41)</f>
         <v>1.31052375</v>
       </c>
@@ -19202,7 +19319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -19279,7 +19396,7 @@
         <v>2.5751249999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -19353,7 +19470,7 @@
         <v>1.777075</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -19421,7 +19538,7 @@
         <v>3.73224</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -19495,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -19573,7 +19690,7 @@
         <v>1.11005</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -19650,7 +19767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -19721,7 +19838,7 @@
         <v>1.736335</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -19801,7 +19918,7 @@
         <v>1.0433699999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -19881,7 +19998,7 @@
         <v>0.93001</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -19958,18 +20075,18 @@
         <v>1.83768</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>157</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K12" s="12" t="b">
         <v>0</v>
@@ -19978,7 +20095,7 @@
         <v>1.4824250000000001</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N12" s="12">
         <v>9</v>
@@ -20017,12 +20134,12 @@
         <v>1.877435</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>135</v>
@@ -20043,7 +20160,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K13" s="12" t="b">
         <v>1</v>
@@ -20052,7 +20169,7 @@
         <v>2.6821600000000001</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N13" s="12">
         <v>6</v>
@@ -20091,7 +20208,7 @@
         <v>1.0932299999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -20108,7 +20225,7 @@
         <v>2.3934950000000002</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G14" s="12">
         <v>9</v>
@@ -20120,7 +20237,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K14" s="12" t="b">
         <v>0</v>
@@ -20129,7 +20246,7 @@
         <v>1.750575</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N14" s="12">
         <v>9</v>
@@ -20168,12 +20285,12 @@
         <v>2.8143400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>152</v>
@@ -20194,7 +20311,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K15" s="12" t="b">
         <v>1</v>
@@ -20203,7 +20320,7 @@
         <v>2.7491099999999999</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="N15" s="12">
         <v>5</v>
@@ -20227,7 +20344,7 @@
         <v>2.7454700000000001</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="V15" s="12">
         <v>5</v>
@@ -20245,12 +20362,12 @@
         <v>1.920315</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>141</v>
@@ -20262,7 +20379,7 @@
         <v>2.2349250000000001</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G16" s="12">
         <v>4</v>
@@ -20274,7 +20391,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K16" s="12" t="b">
         <v>1</v>
@@ -20322,12 +20439,12 @@
         <v>1.21116</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>116</v>
@@ -20339,7 +20456,7 @@
         <v>1.9117200000000001</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G17" s="12">
         <v>1</v>
@@ -20351,7 +20468,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="K17" s="12" t="b">
         <v>0</v>
@@ -20396,12 +20513,12 @@
         <v>0.60555999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>128</v>
@@ -20413,7 +20530,7 @@
         <v>1.496885</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
@@ -20425,7 +20542,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="K18" s="12" t="b">
         <v>1</v>
@@ -20467,12 +20584,12 @@
         <v>2.6987049999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>144</v>
@@ -20496,7 +20613,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="K19" s="12" t="b">
         <v>1</v>
@@ -20505,7 +20622,7 @@
         <v>1.95323</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="N19" s="12">
         <v>4</v>
@@ -20529,7 +20646,7 @@
         <v>2.2172900000000002</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="V19" s="12">
         <v>5</v>
@@ -20547,12 +20664,12 @@
         <v>1.6265849999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>177</v>
@@ -20564,7 +20681,7 @@
         <v>2.3531550000000001</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="G20" s="12">
         <v>6</v>
@@ -20576,7 +20693,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="K20" s="12" t="b">
         <v>1</v>
@@ -20585,7 +20702,7 @@
         <v>3.3537349999999999</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="N20" s="12">
         <v>1</v>
@@ -20629,7 +20746,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>79</v>
@@ -20641,7 +20758,7 @@
         <v>1.9522349999999999</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G21" s="14">
         <v>0</v>
@@ -20653,7 +20770,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="K21" s="14" t="b">
         <v>1</v>
@@ -20662,7 +20779,7 @@
         <v>1.9818150000000001</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="N21" s="14">
         <v>4</v>
@@ -20686,7 +20803,7 @@
         <v>1.6573150000000001</v>
       </c>
       <c r="U21" s="14" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="V21" s="14">
         <v>0</v>
@@ -20704,7 +20821,7 @@
         <v>3.1269499999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -20715,7 +20832,7 @@
         <v>195</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="K22" s="12" t="b">
         <v>0</v>
@@ -20760,12 +20877,12 @@
         <v>1.5857600000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>204</v>
@@ -20786,7 +20903,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="K23" s="12" t="b">
         <v>1</v>
@@ -20795,7 +20912,7 @@
         <v>2.2039800000000001</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="N23" s="12">
         <v>6</v>
@@ -20819,7 +20936,7 @@
         <v>2.4898899999999999</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="V23" s="12">
         <v>2</v>
@@ -20837,12 +20954,12 @@
         <v>0.70452499999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>49</v>
@@ -20866,7 +20983,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="K24" s="12" t="b">
         <v>0</v>
@@ -20908,12 +21025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>168</v>
@@ -20925,7 +21042,7 @@
         <v>1.7456199999999999</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="G25" s="12">
         <v>4</v>
@@ -20937,7 +21054,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="K25" s="12" t="b">
         <v>1</v>
@@ -20946,7 +21063,7 @@
         <v>2.7238349999999998</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="N25" s="12">
         <v>3</v>
@@ -20970,7 +21087,7 @@
         <v>1.9704649999999999</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="V25" s="12">
         <v>2</v>
@@ -20988,7 +21105,7 @@
         <v>3.25258</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -21005,7 +21122,7 @@
         <v>2.298495</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="G26" s="12">
         <v>5</v>
@@ -21017,7 +21134,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="K26" s="12" t="b">
         <v>0</v>
@@ -21026,7 +21143,7 @@
         <v>3.3352300000000001</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="N26" s="12">
         <v>6</v>
@@ -21065,7 +21182,7 @@
         <v>1.65361</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -21082,7 +21199,7 @@
         <v>1.7937149999999999</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="G27" s="12">
         <v>1</v>
@@ -21094,7 +21211,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="K27" s="12" t="b">
         <v>1</v>
@@ -21145,7 +21262,7 @@
         <v>3.4362050000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -21174,7 +21291,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="K28" s="12" t="b">
         <v>0</v>
@@ -21204,7 +21321,7 @@
         <v>2.7158899999999999</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="V28" s="12">
         <v>5</v>
@@ -21222,12 +21339,12 @@
         <v>2.1898749999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>110</v>
@@ -21239,7 +21356,7 @@
         <v>2.43553</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="G29" s="12">
         <v>3</v>
@@ -21251,7 +21368,7 @@
         <v>7</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="K29" s="12" t="b">
         <v>1</v>
@@ -21260,7 +21377,7 @@
         <v>3.3728050000000001</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="N29" s="12">
         <v>4</v>
@@ -21281,7 +21398,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="V29" s="12">
         <v>2</v>
@@ -21299,7 +21416,7 @@
         <v>1.08064</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -21316,7 +21433,7 @@
         <v>2.1943950000000001</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="G30" s="12">
         <v>7</v>
@@ -21328,7 +21445,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="K30" s="12" t="b">
         <v>1</v>
@@ -21337,7 +21454,7 @@
         <v>2.0983100000000001</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="N30" s="12">
         <v>2</v>
@@ -21361,7 +21478,7 @@
         <v>2.3660049999999999</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="V30" s="12">
         <v>3</v>
@@ -21379,12 +21496,12 @@
         <v>0.93112499999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>138</v>
@@ -21396,7 +21513,7 @@
         <v>2.5813299999999999</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="G31" s="12">
         <v>5</v>
@@ -21408,7 +21525,7 @@
         <v>7</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="K31" s="12" t="b">
         <v>1</v>
@@ -21450,18 +21567,18 @@
         <v>2.0140400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>63</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="K32" s="12" t="b">
         <v>0</v>
@@ -21470,7 +21587,7 @@
         <v>2.406765</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="N32" s="12">
         <v>6</v>
@@ -21509,12 +21626,12 @@
         <v>0.94480499999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>75</v>
@@ -21526,7 +21643,7 @@
         <v>2.596015</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="G33" s="12">
         <v>4</v>
@@ -21538,7 +21655,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="K33" s="12" t="b">
         <v>1</v>
@@ -21547,7 +21664,7 @@
         <v>2.4522249999999999</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="N33" s="12">
         <v>4</v>
@@ -21586,12 +21703,12 @@
         <v>1.628835</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>125</v>
@@ -21603,7 +21720,7 @@
         <v>2.0142950000000002</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="G34" s="12">
         <v>5</v>
@@ -21615,7 +21732,7 @@
         <v>7</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="K34" s="12" t="b">
         <v>1</v>
@@ -21660,12 +21777,12 @@
         <v>1.7866599999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>103</v>
@@ -21677,7 +21794,7 @@
         <v>1.1716800000000001</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="G35" s="12">
         <v>0</v>
@@ -21689,7 +21806,7 @@
         <v>7</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="K35" s="12" t="b">
         <v>1</v>
@@ -21698,7 +21815,7 @@
         <v>3.3161450000000001</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="N35" s="12">
         <v>7</v>
@@ -21731,12 +21848,12 @@
         <v>2.0108999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>185</v>
@@ -21748,7 +21865,7 @@
         <v>1.1549149999999999</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="G36" s="12">
         <v>5</v>
@@ -21760,7 +21877,7 @@
         <v>7</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="K36" s="12" t="b">
         <v>0</v>
@@ -21769,7 +21886,7 @@
         <v>2.7553999999999998</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="N36" s="12">
         <v>5</v>
@@ -21793,7 +21910,7 @@
         <v>2.1146449999999999</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="V36" s="12">
         <v>6</v>
@@ -21811,7 +21928,7 @@
         <v>2.511155</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -21828,7 +21945,7 @@
         <v>2.6161650000000001</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="G37" s="12">
         <v>5</v>
@@ -21840,7 +21957,7 @@
         <v>7</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="K37" s="12" t="b">
         <v>1</v>
@@ -21849,7 +21966,7 @@
         <v>3.39995</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="N37" s="12">
         <v>4</v>
@@ -21870,7 +21987,7 @@
         <v>2.9695450000000001</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="V37" s="12">
         <v>6</v>
@@ -21893,13 +22010,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>119</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="G38" s="12">
         <v>7</v>
@@ -21911,7 +22028,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="K38" s="12" t="b">
         <v>1</v>
@@ -21941,7 +22058,7 @@
         <v>1.954285</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="V38" s="12">
         <v>4</v>
@@ -21961,7 +22078,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>96</v>
@@ -21973,7 +22090,7 @@
         <v>3.0209700000000002</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="G39" s="12">
         <v>6</v>
@@ -21985,7 +22102,7 @@
         <v>7</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="K39" s="12" t="b">
         <v>0</v>
@@ -21994,7 +22111,7 @@
         <v>2.9167000000000001</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="N39" s="12">
         <v>5</v>
@@ -22050,7 +22167,7 @@
         <v>1.93198</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="G40" s="12">
         <v>7</v>
@@ -22062,7 +22179,7 @@
         <v>7</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="K40" s="12" t="b">
         <v>1</v>
@@ -22071,7 +22188,7 @@
         <v>2.5643099999999999</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="N40" s="12">
         <v>13</v>
@@ -22127,7 +22244,7 @@
         <v>2.3960400000000002</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="G41" s="12">
         <v>5</v>
@@ -22139,7 +22256,7 @@
         <v>7</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="K41" s="12" t="b">
         <v>0</v>
@@ -22197,7 +22314,7 @@
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -22208,7 +22325,7 @@
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -22222,7 +22339,7 @@
       </c>
       <c r="T42" s="20"/>
       <c r="U42" s="20" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
@@ -23252,65 +23369,89 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y1002"/>
+  <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:M21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="25" width="8.6640625" customWidth="1"/>
+    <col min="2" max="11" width="8.6640625" style="29" customWidth="1"/>
+    <col min="12" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:24" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B1" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="B2" s="24">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24">
+        <v>559</v>
+      </c>
+      <c r="B2" s="51">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51">
+        <v>1</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51">
         <v>2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30">
         <v>3</v>
       </c>
-      <c r="F2" s="24">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="24" t="s">
+        <v>365</v>
+      </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -23321,37 +23462,36 @@
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
+        <v>560</v>
+      </c>
+      <c r="B3" s="52">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52">
+        <v>0</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52">
         <v>2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30">
         <v>3</v>
       </c>
-      <c r="F3" s="14">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30">
         <v>5</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="24" t="s">
+        <v>373</v>
+      </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -23362,242 +23502,296 @@
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" s="27">
+    </row>
+    <row r="4" spans="1:24" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="53">
         <v>33</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53">
         <v>24</v>
       </c>
-      <c r="D4" s="27">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53">
         <v>36</v>
       </c>
-      <c r="E4" s="27">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53">
         <v>33</v>
       </c>
-      <c r="F4" s="27">
+      <c r="I4" s="53"/>
+      <c r="J4" s="53">
         <v>32</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53">
+        <f>AVERAGE(B4,D4,F4,H4,J4)</f>
+        <v>31.6</v>
+      </c>
+      <c r="M4" s="53">
+        <f>STDEV(B4,D4,F4,H4,J4)</f>
+        <v>4.5055521304275192</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+    </row>
+    <row r="5" spans="1:24" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="B5" s="53">
+        <v>2.177637058823529</v>
+      </c>
+      <c r="C5" s="53">
+        <v>0.62125106582595002</v>
+      </c>
+      <c r="D5" s="53">
+        <v>2.1321684285714291</v>
+      </c>
+      <c r="E5" s="53">
+        <v>0.50842682031196051</v>
+      </c>
+      <c r="F5" s="53">
+        <v>1.7854434722222221</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0.39142119305419759</v>
+      </c>
+      <c r="H5" s="53">
+        <v>1.8842736111111109</v>
+      </c>
+      <c r="I5" s="53">
+        <v>0.37735398485634131</v>
+      </c>
+      <c r="J5" s="53">
+        <v>2.0924425714285708</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.51182308985537384</v>
+      </c>
+      <c r="L5" s="53">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="M5" s="53">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+    </row>
+    <row r="6" spans="1:24" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="54">
+        <v>16</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54">
+        <v>0</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54">
+        <v>21</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="64">
+        <v>7</v>
+      </c>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64">
+        <v>4</v>
+      </c>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64">
+        <f>AVERAGE(B6,D6,F6,H6,J6)</f>
+        <v>9.6</v>
+      </c>
+      <c r="M6" s="64">
+        <f>STDEV(B6,D6,F6,H6,J6)</f>
+        <v>8.6775572599666546</v>
+      </c>
+      <c r="N6" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="27">
-        <v>2.177637058823529</v>
-      </c>
-      <c r="C5" s="27">
-        <v>2.1321684285714291</v>
-      </c>
-      <c r="D5" s="27">
-        <v>1.7854434722222221</v>
-      </c>
-      <c r="E5" s="27">
-        <v>1.8842736111111109</v>
-      </c>
-      <c r="F5" s="27">
-        <v>2.0924425714285708</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28" t="s">
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+    </row>
+    <row r="7" spans="1:24" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="B7" s="54">
+        <v>1.632169054054204</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.98875111242618763</v>
+      </c>
+      <c r="D7" s="54">
+        <v>1.594790540536476</v>
+      </c>
+      <c r="E7" s="54">
+        <v>1.132392029268712</v>
+      </c>
+      <c r="F7" s="54">
+        <v>2.6160021621621592</v>
+      </c>
+      <c r="G7" s="53">
+        <v>1.5292459723289991</v>
+      </c>
+      <c r="H7" s="64">
+        <v>1.954428108119582</v>
+      </c>
+      <c r="I7" s="64">
+        <v>0.71276567392826939</v>
+      </c>
+      <c r="J7" s="64">
+        <v>3.9373520270235378</v>
+      </c>
+      <c r="K7" s="64">
+        <v>1.869416159850988</v>
+      </c>
+      <c r="L7" s="55">
+        <v>2.347</v>
+      </c>
+      <c r="M7" s="55">
+        <v>1.577</v>
+      </c>
+      <c r="N7" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="B6" s="26">
-        <v>16</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
-        <v>21</v>
-      </c>
-      <c r="E6" s="26">
-        <v>7</v>
-      </c>
-      <c r="F6" s="26">
-        <v>4</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="29" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+    </row>
+    <row r="8" spans="1:24" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="B8" s="55">
+        <v>3.757175405405405</v>
+      </c>
+      <c r="C8" s="55">
+        <v>0.87513060395359676</v>
+      </c>
+      <c r="D8" s="55">
+        <v>2.383166216216217</v>
+      </c>
+      <c r="E8" s="55">
+        <v>1.574812872423434</v>
+      </c>
+      <c r="F8" s="55">
+        <v>5.1453227027027024</v>
+      </c>
+      <c r="G8" s="53">
+        <v>1.278852356535213</v>
+      </c>
+      <c r="H8" s="55">
+        <v>4.7465600000000006</v>
+      </c>
+      <c r="I8" s="55">
+        <v>1.147395814588468</v>
+      </c>
+      <c r="J8" s="55">
+        <v>6.8602959459459463</v>
+      </c>
+      <c r="K8" s="55">
+        <v>0.58793737933448298</v>
+      </c>
+      <c r="L8" s="53">
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="M8" s="53">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="N8" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="B7" s="27">
-        <v>1.632169054054204</v>
-      </c>
-      <c r="C7" s="27">
-        <v>1.594790540536476</v>
-      </c>
-      <c r="D7" s="27">
-        <v>2.6160021621621592</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1.954428108119582</v>
-      </c>
-      <c r="F7" s="27">
-        <v>3.9373520270235378</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="B8" s="27">
-        <v>3.757175405405405</v>
-      </c>
-      <c r="C8" s="27">
-        <v>2.383166216216217</v>
-      </c>
-      <c r="D8" s="27">
-        <v>5.1453227027027024</v>
-      </c>
-      <c r="E8" s="27">
-        <v>4.7465600000000006</v>
-      </c>
-      <c r="F8" s="27">
-        <v>6.8602959459459463</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:24" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="B9" s="56">
         <v>22</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="56"/>
+      <c r="D9" s="56">
         <v>20</v>
       </c>
-      <c r="D9" s="31">
+      <c r="E9" s="56"/>
+      <c r="F9" s="56">
         <v>36</v>
       </c>
-      <c r="E9" s="31">
+      <c r="G9" s="56"/>
+      <c r="H9" s="56">
         <v>36</v>
       </c>
-      <c r="F9" s="31">
+      <c r="I9" s="56"/>
+      <c r="J9" s="56">
         <v>25</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56">
+        <f>AVERAGE(B9,D9,F9,H9,J9)</f>
+        <v>27.8</v>
+      </c>
+      <c r="M9" s="56">
+        <f>STDEV(B9,D9,F9,H9,J9)</f>
+        <v>7.6941536246685409</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>403</v>
+      </c>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
@@ -23608,37 +23802,50 @@
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
       <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="B10" s="31">
+    </row>
+    <row r="10" spans="1:24" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="B10" s="56">
         <v>2.2842506578947361</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="56">
+        <v>0.53417046252524625</v>
+      </c>
+      <c r="D10" s="56">
         <v>0.94129064102564119</v>
       </c>
-      <c r="D10" s="31">
+      <c r="E10" s="56">
+        <v>0.29011224552368381</v>
+      </c>
+      <c r="F10" s="56">
         <v>1.1447533750000001</v>
       </c>
-      <c r="E10" s="31">
+      <c r="G10" s="56">
+        <v>0.21447504055072319</v>
+      </c>
+      <c r="H10" s="56">
         <v>1.6177727500000001</v>
       </c>
-      <c r="F10" s="31">
+      <c r="I10" s="56">
+        <v>0.36792955786221843</v>
+      </c>
+      <c r="J10" s="56">
         <v>2.4333373076923079</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="K10" s="56">
+        <v>0.53571440699198769</v>
+      </c>
+      <c r="L10" s="65">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="M10" s="65">
+        <v>0.72</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>406</v>
+      </c>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
@@ -23649,78 +23856,96 @@
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
       <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="B11" s="30">
+    </row>
+    <row r="11" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="70">
         <v>10</v>
       </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
+      <c r="C11" s="70"/>
+      <c r="D11" s="70">
+        <v>0</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70">
         <v>13</v>
       </c>
-      <c r="E11" s="30">
+      <c r="G11" s="56"/>
+      <c r="H11" s="70">
         <v>8</v>
       </c>
-      <c r="F11" s="30">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="B12" s="31">
+      <c r="I11" s="70"/>
+      <c r="J11" s="70">
+        <v>1</v>
+      </c>
+      <c r="K11" s="70"/>
+      <c r="L11" s="66">
+        <f>AVERAGE(B11,D11,F11,H11,J11)</f>
+        <v>6.4</v>
+      </c>
+      <c r="M11" s="66">
+        <f>STDEV(B11,D11,F11,H11,J11)</f>
+        <v>5.6833088953531288</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+    </row>
+    <row r="12" spans="1:24" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" s="57">
         <v>4.7087212499999804</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="57">
+        <v>1.7874605807874231</v>
+      </c>
+      <c r="D12" s="57">
         <v>0.72718662499974018</v>
       </c>
-      <c r="D12" s="31">
+      <c r="E12" s="57">
+        <v>0.66576197693834815</v>
+      </c>
+      <c r="F12" s="57">
         <v>2.3718978749999899</v>
       </c>
-      <c r="E12" s="31">
+      <c r="G12" s="56">
+        <v>1.097056185992789</v>
+      </c>
+      <c r="H12" s="65">
         <v>1.7912607499631119</v>
       </c>
-      <c r="F12" s="31">
+      <c r="I12" s="65">
+        <v>0.54687219289569955</v>
+      </c>
+      <c r="J12" s="65">
         <v>4.4915353750024227</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="K12" s="65">
+        <v>2.0361371261291659</v>
+      </c>
+      <c r="L12" s="65">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="M12" s="65">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>416</v>
+      </c>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
@@ -23731,37 +23956,50 @@
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
       <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="B13" s="31">
+    </row>
+    <row r="13" spans="1:24" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" s="58">
         <v>5.7647306250000003</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="58">
+        <v>1.3194999874257229</v>
+      </c>
+      <c r="D13" s="58">
         <v>1.337339125</v>
       </c>
-      <c r="D13" s="31">
+      <c r="E13" s="58">
+        <v>1.6028443184523129</v>
+      </c>
+      <c r="F13" s="58">
         <v>4.3662453750000001</v>
       </c>
-      <c r="E13" s="31">
+      <c r="G13" s="56">
+        <v>1.6695127850050999</v>
+      </c>
+      <c r="H13" s="66">
         <v>3.9114765</v>
       </c>
-      <c r="F13" s="31">
+      <c r="I13" s="66">
+        <v>1.0898680738288919</v>
+      </c>
+      <c r="J13" s="66">
         <v>6.9918118749999989</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="K13" s="66">
+        <v>5.1134824235635819E-2</v>
+      </c>
+      <c r="L13" s="59">
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="M13" s="59">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>423</v>
+      </c>
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
@@ -23772,37 +24010,42 @@
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
       <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="B14" s="31">
+    </row>
+    <row r="14" spans="1:24" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" s="57">
         <v>28</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57">
         <v>24</v>
       </c>
-      <c r="D14" s="31">
+      <c r="E14" s="57"/>
+      <c r="F14" s="57">
         <v>31</v>
       </c>
-      <c r="E14" s="31">
+      <c r="G14" s="56"/>
+      <c r="H14" s="65">
         <v>32</v>
       </c>
-      <c r="F14" s="31">
+      <c r="I14" s="65"/>
+      <c r="J14" s="65">
         <v>34</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65">
+        <f>AVERAGE(B14,D14,F14,H14,J14)</f>
+        <v>29.8</v>
+      </c>
+      <c r="M14" s="65">
+        <f>STDEV(B14,D14,F14,H14,J14)</f>
+        <v>3.8987177379235916</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>426</v>
+      </c>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
@@ -23813,37 +24056,50 @@
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
       <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="B15" s="31">
+    </row>
+    <row r="15" spans="1:24" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="59">
         <v>3.0173257894736851</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="59">
+        <v>0.47654507426608811</v>
+      </c>
+      <c r="D15" s="59">
         <v>1.0415767948717951</v>
       </c>
-      <c r="D15" s="31">
+      <c r="E15" s="59">
+        <v>0.38759504327638072</v>
+      </c>
+      <c r="F15" s="59">
         <v>1.937860384615385</v>
       </c>
-      <c r="E15" s="31">
+      <c r="G15" s="56">
+        <v>0.74404660955324065</v>
+      </c>
+      <c r="H15" s="59">
         <v>1.719340125</v>
       </c>
-      <c r="F15" s="31">
+      <c r="I15" s="59">
+        <v>0.69972314249948842</v>
+      </c>
+      <c r="J15" s="59">
         <v>2.139674054054054</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="K15" s="59">
+        <v>0.84165512197920767</v>
+      </c>
+      <c r="L15" s="65">
+        <v>1.9630000000000001</v>
+      </c>
+      <c r="M15" s="65">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>433</v>
+      </c>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
@@ -23854,3234 +24110,3301 @@
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
       <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+    </row>
+    <row r="16" spans="1:24" s="44" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" s="60">
+        <v>32</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60">
+        <v>21</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60">
+        <v>31</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68">
+        <v>36</v>
+      </c>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68">
+        <v>25</v>
+      </c>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68">
+        <f>AVERAGE(B16,D16,F16,H16,J16)</f>
+        <v>29</v>
+      </c>
+      <c r="M16" s="68">
+        <f>STDEV(B16,D16,F16,H16,J16)</f>
+        <v>5.9581876439064922</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+    </row>
+    <row r="17" spans="1:24" s="44" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="B17" s="60">
+        <v>2.5303630555555561</v>
+      </c>
+      <c r="C17" s="60">
+        <v>0.57528756562512784</v>
+      </c>
+      <c r="D17" s="60">
+        <v>1.5304237179487179</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0.43154384822033781</v>
+      </c>
+      <c r="F17" s="60">
+        <v>1.2985033749999999</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0.38995945485939221</v>
+      </c>
+      <c r="H17" s="68">
+        <v>1.5314933749999999</v>
+      </c>
+      <c r="I17" s="68">
+        <v>0.3406842369250952</v>
+      </c>
+      <c r="J17" s="68">
+        <v>2.3097020833333328</v>
+      </c>
+      <c r="K17" s="68">
+        <v>0.49265150474297831</v>
+      </c>
+      <c r="L17" s="68">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="M17" s="68">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+    </row>
+    <row r="18" spans="1:24" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" s="61">
+        <v>12</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61">
+        <v>1</v>
+      </c>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61">
+        <v>14</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="69">
+        <v>6</v>
+      </c>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69">
+        <v>2</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69">
+        <f>AVERAGE(B18,D18,F18,H18,J18)</f>
+        <v>7</v>
+      </c>
+      <c r="M18" s="69">
+        <f>STDEV(B18,D18,F18,H18,J18)</f>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+    </row>
+    <row r="19" spans="1:24" s="44" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="B19" s="60">
+        <v>4.3887249999998774</v>
+      </c>
+      <c r="C19" s="60">
+        <v>1.868923987943246</v>
+      </c>
+      <c r="D19" s="60">
+        <v>0.96774650000443219</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0.65005035944839373</v>
+      </c>
+      <c r="F19" s="60">
+        <v>2.0966690000000132</v>
+      </c>
+      <c r="G19" s="67">
+        <v>1.2303254635594341</v>
+      </c>
+      <c r="H19" s="68">
+        <v>1.669292000000046</v>
+      </c>
+      <c r="I19" s="68">
+        <v>0.42521762614830388</v>
+      </c>
+      <c r="J19" s="68">
+        <v>3.4712786249991039</v>
+      </c>
+      <c r="K19" s="68">
+        <v>1.9627147045927069</v>
+      </c>
+      <c r="L19" s="69">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="M19" s="69">
+        <v>1.853</v>
+      </c>
+      <c r="N19" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="B16" s="35">
-        <v>32</v>
-      </c>
-      <c r="C16" s="35">
-        <v>21</v>
-      </c>
-      <c r="D16" s="35">
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+    </row>
+    <row r="20" spans="1:24" s="44" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" s="60">
+        <v>5.3722274999999993</v>
+      </c>
+      <c r="C20" s="60">
+        <v>1.564832471808085</v>
+      </c>
+      <c r="D20" s="60">
+        <v>1.7864828749999999</v>
+      </c>
+      <c r="E20" s="60">
+        <v>1.815828000259416</v>
+      </c>
+      <c r="F20" s="60">
+        <v>3.7968122499999999</v>
+      </c>
+      <c r="G20" s="67">
+        <v>1.549737414500417</v>
+      </c>
+      <c r="H20" s="68">
+        <v>3.9349231250000001</v>
+      </c>
+      <c r="I20" s="68">
+        <v>1.1911367197721721</v>
+      </c>
+      <c r="J20" s="68">
+        <v>5.0097868750000014</v>
+      </c>
+      <c r="K20" s="68">
+        <v>1.9829278337709011</v>
+      </c>
+      <c r="L20" s="69">
+        <v>3.98</v>
+      </c>
+      <c r="M20" s="69">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+    </row>
+    <row r="21" spans="1:24" s="44" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="B21" s="61">
+        <v>28</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61">
+        <v>24</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61">
+        <v>38</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="69">
         <v>31</v>
       </c>
-      <c r="E16" s="35">
-        <v>36</v>
-      </c>
-      <c r="F16" s="35">
-        <v>25</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="I21" s="69"/>
+      <c r="J21" s="69">
+        <v>28</v>
+      </c>
+      <c r="K21" s="69"/>
+      <c r="L21" s="62">
+        <f>AVERAGE(B21,D21,F21,H21,J21)</f>
+        <v>29.8</v>
+      </c>
+      <c r="M21" s="62">
+        <f>STDEV(B21,D21,F21,H21,J21)</f>
+        <v>5.2153619241621234</v>
+      </c>
+      <c r="N21" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="B17" s="35">
-        <v>2.5303630555555561</v>
-      </c>
-      <c r="C17" s="35">
-        <v>1.5304237179487179</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1.2985033749999999</v>
-      </c>
-      <c r="E17" s="35">
-        <v>1.5314933749999999</v>
-      </c>
-      <c r="F17" s="35">
-        <v>2.3097020833333328</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="B18" s="20">
-        <v>12</v>
-      </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <v>14</v>
-      </c>
-      <c r="E18" s="20">
-        <v>6</v>
-      </c>
-      <c r="F18" s="20">
-        <v>2</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="B19" s="35">
-        <v>4.3887249999998774</v>
-      </c>
-      <c r="C19" s="35">
-        <v>0.96774650000443219</v>
-      </c>
-      <c r="D19" s="35">
-        <v>2.0966690000000132</v>
-      </c>
-      <c r="E19" s="35">
-        <v>1.669292000000046</v>
-      </c>
-      <c r="F19" s="35">
-        <v>3.4712786249991039</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="B20" s="35">
-        <v>5.3722274999999993</v>
-      </c>
-      <c r="C20" s="35">
-        <v>1.7864828749999999</v>
-      </c>
-      <c r="D20" s="35">
-        <v>3.7968122499999999</v>
-      </c>
-      <c r="E20" s="35">
-        <v>3.9349231250000001</v>
-      </c>
-      <c r="F20" s="35">
-        <v>5.0097868750000014</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="B21" s="35">
-        <v>28</v>
-      </c>
-      <c r="C21" s="35">
-        <v>24</v>
-      </c>
-      <c r="D21" s="35">
-        <v>38</v>
-      </c>
-      <c r="E21" s="35">
-        <v>31</v>
-      </c>
-      <c r="F21" s="35">
-        <v>28</v>
-      </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="B22" s="35">
-        <v>2.5824403750000005</v>
-      </c>
-      <c r="C22" s="35">
-        <v>0.80325237500000013</v>
-      </c>
-      <c r="D22" s="35">
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+    </row>
+    <row r="22" spans="1:24" s="44" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="B22" s="61">
+        <v>2.648656794871795</v>
+      </c>
+      <c r="C22" s="61">
+        <v>0.64565439386806422</v>
+      </c>
+      <c r="D22" s="61">
+        <v>0.80325237499999991</v>
+      </c>
+      <c r="E22" s="61">
+        <v>0.52194365599409698</v>
+      </c>
+      <c r="F22" s="61">
         <v>1.48136175</v>
       </c>
-      <c r="E22" s="35">
+      <c r="G22" s="67">
+        <v>0.47070925436057393</v>
+      </c>
+      <c r="H22" s="69">
         <v>1.31052375</v>
       </c>
-      <c r="F22" s="35">
+      <c r="I22" s="69">
+        <v>0.37775117065793129</v>
+      </c>
+      <c r="J22" s="69">
         <v>1.884396805555556</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
+      <c r="K22" s="69">
+        <v>0.8572326579279792</v>
+      </c>
+      <c r="L22" s="69">
+        <v>1.615</v>
+      </c>
+      <c r="M22" s="69">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+    </row>
+    <row r="23" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+    </row>
+    <row r="24" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+    </row>
+    <row r="25" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+    </row>
+    <row r="27" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+    </row>
+    <row r="28" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+    </row>
+    <row r="29" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+    </row>
+    <row r="30" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+    </row>
+    <row r="32" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+    </row>
+    <row r="34" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+    </row>
+    <row r="35" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+    </row>
+    <row r="36" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+    </row>
+    <row r="37" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
     </row>
     <row r="38" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
+      <c r="A38" s="28"/>
     </row>
     <row r="39" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
+      <c r="A39" s="28"/>
     </row>
     <row r="40" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
+      <c r="A40" s="28"/>
     </row>
     <row r="41" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
+      <c r="A41" s="28"/>
     </row>
     <row r="42" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
+      <c r="A42" s="28"/>
     </row>
     <row r="43" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
+      <c r="A43" s="28"/>
     </row>
     <row r="44" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="28"/>
     </row>
     <row r="45" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
+      <c r="A45" s="28"/>
     </row>
     <row r="46" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="28"/>
     </row>
     <row r="47" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="28"/>
     </row>
     <row r="48" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
+      <c r="A48" s="28"/>
     </row>
     <row r="49" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
+      <c r="A49" s="28"/>
     </row>
     <row r="50" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
+      <c r="A50" s="28"/>
     </row>
     <row r="51" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
+      <c r="A51" s="28"/>
     </row>
     <row r="52" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
+      <c r="A52" s="28"/>
     </row>
     <row r="53" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
+      <c r="A53" s="28"/>
     </row>
     <row r="54" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="28"/>
     </row>
     <row r="55" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
+      <c r="A55" s="28"/>
     </row>
     <row r="56" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
+      <c r="A56" s="28"/>
     </row>
     <row r="57" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
+      <c r="A57" s="28"/>
     </row>
     <row r="58" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
+      <c r="A58" s="28"/>
     </row>
     <row r="59" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
+      <c r="A59" s="28"/>
     </row>
     <row r="60" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
+      <c r="A60" s="28"/>
     </row>
     <row r="61" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="28"/>
     </row>
     <row r="62" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
+      <c r="A62" s="28"/>
     </row>
     <row r="63" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
+      <c r="A63" s="28"/>
     </row>
     <row r="64" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
+      <c r="A64" s="28"/>
     </row>
     <row r="65" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
+      <c r="A65" s="28"/>
     </row>
     <row r="66" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
+      <c r="A66" s="28"/>
     </row>
     <row r="67" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
+      <c r="A67" s="28"/>
     </row>
     <row r="68" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
+      <c r="A68" s="28"/>
     </row>
     <row r="69" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
+      <c r="A69" s="28"/>
     </row>
     <row r="70" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
+      <c r="A70" s="28"/>
     </row>
     <row r="71" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
+      <c r="A71" s="28"/>
     </row>
     <row r="72" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
+      <c r="A72" s="28"/>
     </row>
     <row r="73" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
+      <c r="A73" s="28"/>
     </row>
     <row r="74" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
+      <c r="A74" s="28"/>
     </row>
     <row r="75" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
+      <c r="A75" s="28"/>
     </row>
     <row r="76" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
+      <c r="A76" s="28"/>
     </row>
     <row r="77" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
+      <c r="A77" s="28"/>
     </row>
     <row r="78" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
+      <c r="A78" s="28"/>
     </row>
     <row r="79" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A79" s="39"/>
+      <c r="A79" s="28"/>
     </row>
     <row r="80" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
+      <c r="A80" s="28"/>
     </row>
     <row r="81" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="39"/>
+      <c r="A81" s="28"/>
     </row>
     <row r="82" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
+      <c r="A82" s="28"/>
     </row>
     <row r="83" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A83" s="39"/>
+      <c r="A83" s="28"/>
     </row>
     <row r="84" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="39"/>
+      <c r="A84" s="28"/>
     </row>
     <row r="85" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="39"/>
+      <c r="A85" s="28"/>
     </row>
     <row r="86" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A86" s="39"/>
+      <c r="A86" s="28"/>
     </row>
     <row r="87" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A87" s="39"/>
+      <c r="A87" s="28"/>
     </row>
     <row r="88" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A88" s="39"/>
+      <c r="A88" s="28"/>
     </row>
     <row r="89" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A89" s="39"/>
+      <c r="A89" s="28"/>
     </row>
     <row r="90" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A90" s="39"/>
+      <c r="A90" s="28"/>
     </row>
     <row r="91" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A91" s="39"/>
+      <c r="A91" s="28"/>
     </row>
     <row r="92" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A92" s="39"/>
+      <c r="A92" s="28"/>
     </row>
     <row r="93" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A93" s="39"/>
+      <c r="A93" s="28"/>
     </row>
     <row r="94" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A94" s="39"/>
+      <c r="A94" s="28"/>
     </row>
     <row r="95" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A95" s="39"/>
+      <c r="A95" s="28"/>
     </row>
     <row r="96" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="39"/>
+      <c r="A96" s="28"/>
     </row>
     <row r="97" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A97" s="39"/>
+      <c r="A97" s="28"/>
     </row>
     <row r="98" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A98" s="39"/>
+      <c r="A98" s="28"/>
     </row>
     <row r="99" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A99" s="39"/>
+      <c r="A99" s="28"/>
     </row>
     <row r="100" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A100" s="39"/>
+      <c r="A100" s="28"/>
     </row>
     <row r="101" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A101" s="39"/>
+      <c r="A101" s="28"/>
     </row>
     <row r="102" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A102" s="39"/>
+      <c r="A102" s="28"/>
     </row>
     <row r="103" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A103" s="39"/>
+      <c r="A103" s="28"/>
     </row>
     <row r="104" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A104" s="39"/>
+      <c r="A104" s="28"/>
     </row>
     <row r="105" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A105" s="39"/>
+      <c r="A105" s="28"/>
     </row>
     <row r="106" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A106" s="39"/>
+      <c r="A106" s="28"/>
     </row>
     <row r="107" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A107" s="39"/>
+      <c r="A107" s="28"/>
     </row>
     <row r="108" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A108" s="39"/>
+      <c r="A108" s="28"/>
     </row>
     <row r="109" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A109" s="39"/>
+      <c r="A109" s="28"/>
     </row>
     <row r="110" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A110" s="39"/>
+      <c r="A110" s="28"/>
     </row>
     <row r="111" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A111" s="39"/>
+      <c r="A111" s="28"/>
     </row>
     <row r="112" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A112" s="39"/>
+      <c r="A112" s="28"/>
     </row>
     <row r="113" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A113" s="39"/>
+      <c r="A113" s="28"/>
     </row>
     <row r="114" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A114" s="39"/>
+      <c r="A114" s="28"/>
     </row>
     <row r="115" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A115" s="39"/>
+      <c r="A115" s="28"/>
     </row>
     <row r="116" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A116" s="39"/>
+      <c r="A116" s="28"/>
     </row>
     <row r="117" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A117" s="39"/>
+      <c r="A117" s="28"/>
     </row>
     <row r="118" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A118" s="39"/>
+      <c r="A118" s="28"/>
     </row>
     <row r="119" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A119" s="39"/>
+      <c r="A119" s="28"/>
     </row>
     <row r="120" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A120" s="39"/>
+      <c r="A120" s="28"/>
     </row>
     <row r="121" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A121" s="39"/>
+      <c r="A121" s="28"/>
     </row>
     <row r="122" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A122" s="39"/>
+      <c r="A122" s="28"/>
     </row>
     <row r="123" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A123" s="39"/>
+      <c r="A123" s="28"/>
     </row>
     <row r="124" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A124" s="39"/>
+      <c r="A124" s="28"/>
     </row>
     <row r="125" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A125" s="39"/>
+      <c r="A125" s="28"/>
     </row>
     <row r="126" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A126" s="39"/>
+      <c r="A126" s="28"/>
     </row>
     <row r="127" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A127" s="39"/>
+      <c r="A127" s="28"/>
     </row>
     <row r="128" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A128" s="39"/>
+      <c r="A128" s="28"/>
     </row>
     <row r="129" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A129" s="39"/>
+      <c r="A129" s="28"/>
     </row>
     <row r="130" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A130" s="39"/>
+      <c r="A130" s="28"/>
     </row>
     <row r="131" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A131" s="39"/>
+      <c r="A131" s="28"/>
     </row>
     <row r="132" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A132" s="39"/>
+      <c r="A132" s="28"/>
     </row>
     <row r="133" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A133" s="39"/>
+      <c r="A133" s="28"/>
     </row>
     <row r="134" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A134" s="39"/>
+      <c r="A134" s="28"/>
     </row>
     <row r="135" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A135" s="39"/>
+      <c r="A135" s="28"/>
     </row>
     <row r="136" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A136" s="39"/>
+      <c r="A136" s="28"/>
     </row>
     <row r="137" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A137" s="39"/>
+      <c r="A137" s="28"/>
     </row>
     <row r="138" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A138" s="39"/>
+      <c r="A138" s="28"/>
     </row>
     <row r="139" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A139" s="39"/>
+      <c r="A139" s="28"/>
     </row>
     <row r="140" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A140" s="39"/>
+      <c r="A140" s="28"/>
     </row>
     <row r="141" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="39"/>
+      <c r="A141" s="28"/>
     </row>
     <row r="142" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A142" s="39"/>
+      <c r="A142" s="28"/>
     </row>
     <row r="143" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A143" s="39"/>
+      <c r="A143" s="28"/>
     </row>
     <row r="144" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A144" s="39"/>
+      <c r="A144" s="28"/>
     </row>
     <row r="145" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A145" s="39"/>
+      <c r="A145" s="28"/>
     </row>
     <row r="146" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A146" s="39"/>
+      <c r="A146" s="28"/>
     </row>
     <row r="147" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A147" s="39"/>
+      <c r="A147" s="28"/>
     </row>
     <row r="148" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A148" s="39"/>
+      <c r="A148" s="28"/>
     </row>
     <row r="149" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A149" s="39"/>
+      <c r="A149" s="28"/>
     </row>
     <row r="150" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A150" s="39"/>
+      <c r="A150" s="28"/>
     </row>
     <row r="151" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A151" s="39"/>
+      <c r="A151" s="28"/>
     </row>
     <row r="152" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A152" s="39"/>
+      <c r="A152" s="28"/>
     </row>
     <row r="153" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A153" s="39"/>
+      <c r="A153" s="28"/>
     </row>
     <row r="154" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A154" s="39"/>
+      <c r="A154" s="28"/>
     </row>
     <row r="155" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A155" s="39"/>
+      <c r="A155" s="28"/>
     </row>
     <row r="156" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A156" s="39"/>
+      <c r="A156" s="28"/>
     </row>
     <row r="157" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A157" s="39"/>
+      <c r="A157" s="28"/>
     </row>
     <row r="158" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A158" s="39"/>
+      <c r="A158" s="28"/>
     </row>
     <row r="159" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A159" s="39"/>
+      <c r="A159" s="28"/>
     </row>
     <row r="160" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A160" s="39"/>
+      <c r="A160" s="28"/>
     </row>
     <row r="161" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A161" s="39"/>
+      <c r="A161" s="28"/>
     </row>
     <row r="162" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A162" s="39"/>
+      <c r="A162" s="28"/>
     </row>
     <row r="163" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A163" s="39"/>
+      <c r="A163" s="28"/>
     </row>
     <row r="164" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A164" s="39"/>
+      <c r="A164" s="28"/>
     </row>
     <row r="165" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A165" s="39"/>
+      <c r="A165" s="28"/>
     </row>
     <row r="166" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A166" s="39"/>
+      <c r="A166" s="28"/>
     </row>
     <row r="167" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A167" s="39"/>
+      <c r="A167" s="28"/>
     </row>
     <row r="168" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A168" s="39"/>
+      <c r="A168" s="28"/>
     </row>
     <row r="169" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A169" s="39"/>
+      <c r="A169" s="28"/>
     </row>
     <row r="170" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A170" s="39"/>
+      <c r="A170" s="28"/>
     </row>
     <row r="171" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A171" s="39"/>
+      <c r="A171" s="28"/>
     </row>
     <row r="172" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A172" s="39"/>
+      <c r="A172" s="28"/>
     </row>
     <row r="173" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A173" s="39"/>
+      <c r="A173" s="28"/>
     </row>
     <row r="174" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A174" s="39"/>
+      <c r="A174" s="28"/>
     </row>
     <row r="175" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A175" s="39"/>
+      <c r="A175" s="28"/>
     </row>
     <row r="176" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A176" s="39"/>
+      <c r="A176" s="28"/>
     </row>
     <row r="177" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A177" s="39"/>
+      <c r="A177" s="28"/>
     </row>
     <row r="178" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A178" s="39"/>
+      <c r="A178" s="28"/>
     </row>
     <row r="179" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A179" s="39"/>
+      <c r="A179" s="28"/>
     </row>
     <row r="180" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A180" s="39"/>
+      <c r="A180" s="28"/>
     </row>
     <row r="181" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A181" s="39"/>
+      <c r="A181" s="28"/>
     </row>
     <row r="182" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A182" s="39"/>
+      <c r="A182" s="28"/>
     </row>
     <row r="183" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A183" s="39"/>
+      <c r="A183" s="28"/>
     </row>
     <row r="184" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A184" s="39"/>
+      <c r="A184" s="28"/>
     </row>
     <row r="185" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A185" s="39"/>
+      <c r="A185" s="28"/>
     </row>
     <row r="186" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A186" s="39"/>
+      <c r="A186" s="28"/>
     </row>
     <row r="187" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A187" s="39"/>
+      <c r="A187" s="28"/>
     </row>
     <row r="188" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A188" s="39"/>
+      <c r="A188" s="28"/>
     </row>
     <row r="189" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A189" s="39"/>
+      <c r="A189" s="28"/>
     </row>
     <row r="190" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A190" s="39"/>
+      <c r="A190" s="28"/>
     </row>
     <row r="191" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A191" s="39"/>
+      <c r="A191" s="28"/>
     </row>
     <row r="192" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A192" s="39"/>
+      <c r="A192" s="28"/>
     </row>
     <row r="193" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A193" s="39"/>
+      <c r="A193" s="28"/>
     </row>
     <row r="194" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A194" s="39"/>
+      <c r="A194" s="28"/>
     </row>
     <row r="195" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A195" s="39"/>
+      <c r="A195" s="28"/>
     </row>
     <row r="196" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A196" s="39"/>
+      <c r="A196" s="28"/>
     </row>
     <row r="197" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A197" s="39"/>
+      <c r="A197" s="28"/>
     </row>
     <row r="198" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A198" s="39"/>
+      <c r="A198" s="28"/>
     </row>
     <row r="199" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A199" s="39"/>
+      <c r="A199" s="28"/>
     </row>
     <row r="200" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A200" s="39"/>
+      <c r="A200" s="28"/>
     </row>
     <row r="201" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A201" s="39"/>
+      <c r="A201" s="28"/>
     </row>
     <row r="202" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A202" s="39"/>
+      <c r="A202" s="28"/>
     </row>
     <row r="203" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A203" s="39"/>
+      <c r="A203" s="28"/>
     </row>
     <row r="204" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A204" s="39"/>
+      <c r="A204" s="28"/>
     </row>
     <row r="205" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A205" s="39"/>
+      <c r="A205" s="28"/>
     </row>
     <row r="206" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A206" s="39"/>
+      <c r="A206" s="28"/>
     </row>
     <row r="207" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A207" s="39"/>
+      <c r="A207" s="28"/>
     </row>
     <row r="208" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A208" s="39"/>
+      <c r="A208" s="28"/>
     </row>
     <row r="209" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A209" s="39"/>
+      <c r="A209" s="28"/>
     </row>
     <row r="210" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A210" s="39"/>
+      <c r="A210" s="28"/>
     </row>
     <row r="211" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A211" s="39"/>
+      <c r="A211" s="28"/>
     </row>
     <row r="212" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A212" s="39"/>
+      <c r="A212" s="28"/>
     </row>
     <row r="213" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A213" s="39"/>
+      <c r="A213" s="28"/>
     </row>
     <row r="214" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A214" s="39"/>
+      <c r="A214" s="28"/>
     </row>
     <row r="215" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A215" s="39"/>
+      <c r="A215" s="28"/>
     </row>
     <row r="216" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A216" s="39"/>
+      <c r="A216" s="28"/>
     </row>
     <row r="217" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A217" s="39"/>
+      <c r="A217" s="28"/>
     </row>
     <row r="218" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A218" s="39"/>
+      <c r="A218" s="28"/>
     </row>
     <row r="219" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A219" s="39"/>
+      <c r="A219" s="28"/>
     </row>
     <row r="220" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A220" s="39"/>
+      <c r="A220" s="28"/>
     </row>
     <row r="221" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A221" s="39"/>
+      <c r="A221" s="28"/>
     </row>
     <row r="222" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A222" s="39"/>
+      <c r="A222" s="28"/>
     </row>
     <row r="223" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A223" s="39"/>
+      <c r="A223" s="28"/>
     </row>
     <row r="224" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A224" s="39"/>
+      <c r="A224" s="28"/>
     </row>
     <row r="225" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A225" s="39"/>
+      <c r="A225" s="28"/>
     </row>
     <row r="226" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A226" s="39"/>
+      <c r="A226" s="28"/>
     </row>
     <row r="227" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A227" s="39"/>
+      <c r="A227" s="28"/>
     </row>
     <row r="228" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A228" s="39"/>
+      <c r="A228" s="28"/>
     </row>
     <row r="229" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A229" s="39"/>
+      <c r="A229" s="28"/>
     </row>
     <row r="230" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A230" s="39"/>
+      <c r="A230" s="28"/>
     </row>
     <row r="231" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A231" s="39"/>
+      <c r="A231" s="28"/>
     </row>
     <row r="232" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A232" s="39"/>
+      <c r="A232" s="28"/>
     </row>
     <row r="233" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A233" s="39"/>
+      <c r="A233" s="28"/>
     </row>
     <row r="234" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A234" s="39"/>
+      <c r="A234" s="28"/>
     </row>
     <row r="235" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A235" s="39"/>
+      <c r="A235" s="28"/>
     </row>
     <row r="236" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A236" s="39"/>
+      <c r="A236" s="28"/>
     </row>
     <row r="237" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A237" s="39"/>
+      <c r="A237" s="28"/>
     </row>
     <row r="238" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A238" s="39"/>
+      <c r="A238" s="28"/>
     </row>
     <row r="239" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A239" s="39"/>
+      <c r="A239" s="28"/>
     </row>
     <row r="240" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A240" s="39"/>
+      <c r="A240" s="28"/>
     </row>
     <row r="241" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A241" s="39"/>
+      <c r="A241" s="28"/>
     </row>
     <row r="242" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A242" s="39"/>
+      <c r="A242" s="28"/>
     </row>
     <row r="243" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A243" s="39"/>
+      <c r="A243" s="28"/>
     </row>
     <row r="244" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A244" s="39"/>
+      <c r="A244" s="28"/>
     </row>
     <row r="245" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A245" s="39"/>
+      <c r="A245" s="28"/>
     </row>
     <row r="246" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A246" s="39"/>
+      <c r="A246" s="28"/>
     </row>
     <row r="247" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A247" s="39"/>
+      <c r="A247" s="28"/>
     </row>
     <row r="248" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A248" s="39"/>
+      <c r="A248" s="28"/>
     </row>
     <row r="249" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A249" s="39"/>
+      <c r="A249" s="28"/>
     </row>
     <row r="250" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A250" s="39"/>
+      <c r="A250" s="28"/>
     </row>
     <row r="251" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A251" s="39"/>
+      <c r="A251" s="28"/>
     </row>
     <row r="252" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A252" s="39"/>
+      <c r="A252" s="28"/>
     </row>
     <row r="253" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A253" s="39"/>
+      <c r="A253" s="28"/>
     </row>
     <row r="254" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A254" s="39"/>
+      <c r="A254" s="28"/>
     </row>
     <row r="255" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A255" s="39"/>
+      <c r="A255" s="28"/>
     </row>
     <row r="256" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A256" s="39"/>
+      <c r="A256" s="28"/>
     </row>
     <row r="257" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A257" s="39"/>
+      <c r="A257" s="28"/>
     </row>
     <row r="258" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A258" s="39"/>
+      <c r="A258" s="28"/>
     </row>
     <row r="259" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A259" s="39"/>
+      <c r="A259" s="28"/>
     </row>
     <row r="260" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A260" s="39"/>
+      <c r="A260" s="28"/>
     </row>
     <row r="261" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A261" s="39"/>
+      <c r="A261" s="28"/>
     </row>
     <row r="262" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A262" s="39"/>
+      <c r="A262" s="28"/>
     </row>
     <row r="263" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A263" s="39"/>
+      <c r="A263" s="28"/>
     </row>
     <row r="264" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A264" s="39"/>
+      <c r="A264" s="28"/>
     </row>
     <row r="265" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A265" s="39"/>
+      <c r="A265" s="28"/>
     </row>
     <row r="266" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A266" s="39"/>
+      <c r="A266" s="28"/>
     </row>
     <row r="267" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A267" s="39"/>
+      <c r="A267" s="28"/>
     </row>
     <row r="268" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A268" s="39"/>
+      <c r="A268" s="28"/>
     </row>
     <row r="269" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A269" s="39"/>
+      <c r="A269" s="28"/>
     </row>
     <row r="270" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A270" s="39"/>
+      <c r="A270" s="28"/>
     </row>
     <row r="271" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A271" s="39"/>
+      <c r="A271" s="28"/>
     </row>
     <row r="272" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A272" s="39"/>
+      <c r="A272" s="28"/>
     </row>
     <row r="273" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A273" s="39"/>
+      <c r="A273" s="28"/>
     </row>
     <row r="274" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A274" s="39"/>
+      <c r="A274" s="28"/>
     </row>
     <row r="275" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A275" s="39"/>
+      <c r="A275" s="28"/>
     </row>
     <row r="276" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A276" s="39"/>
+      <c r="A276" s="28"/>
     </row>
     <row r="277" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A277" s="39"/>
+      <c r="A277" s="28"/>
     </row>
     <row r="278" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A278" s="39"/>
+      <c r="A278" s="28"/>
     </row>
     <row r="279" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A279" s="39"/>
+      <c r="A279" s="28"/>
     </row>
     <row r="280" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A280" s="39"/>
+      <c r="A280" s="28"/>
     </row>
     <row r="281" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A281" s="39"/>
+      <c r="A281" s="28"/>
     </row>
     <row r="282" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A282" s="39"/>
+      <c r="A282" s="28"/>
     </row>
     <row r="283" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A283" s="39"/>
+      <c r="A283" s="28"/>
     </row>
     <row r="284" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A284" s="39"/>
+      <c r="A284" s="28"/>
     </row>
     <row r="285" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A285" s="39"/>
+      <c r="A285" s="28"/>
     </row>
     <row r="286" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A286" s="39"/>
+      <c r="A286" s="28"/>
     </row>
     <row r="287" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A287" s="39"/>
+      <c r="A287" s="28"/>
     </row>
     <row r="288" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A288" s="39"/>
+      <c r="A288" s="28"/>
     </row>
     <row r="289" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A289" s="39"/>
+      <c r="A289" s="28"/>
     </row>
     <row r="290" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A290" s="39"/>
+      <c r="A290" s="28"/>
     </row>
     <row r="291" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A291" s="39"/>
+      <c r="A291" s="28"/>
     </row>
     <row r="292" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A292" s="39"/>
+      <c r="A292" s="28"/>
     </row>
     <row r="293" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A293" s="39"/>
+      <c r="A293" s="28"/>
     </row>
     <row r="294" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A294" s="39"/>
+      <c r="A294" s="28"/>
     </row>
     <row r="295" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A295" s="39"/>
+      <c r="A295" s="28"/>
     </row>
     <row r="296" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A296" s="39"/>
+      <c r="A296" s="28"/>
     </row>
     <row r="297" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A297" s="39"/>
+      <c r="A297" s="28"/>
     </row>
     <row r="298" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A298" s="39"/>
+      <c r="A298" s="28"/>
     </row>
     <row r="299" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A299" s="39"/>
+      <c r="A299" s="28"/>
     </row>
     <row r="300" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A300" s="39"/>
+      <c r="A300" s="28"/>
     </row>
     <row r="301" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A301" s="39"/>
+      <c r="A301" s="28"/>
     </row>
     <row r="302" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A302" s="39"/>
+      <c r="A302" s="28"/>
     </row>
     <row r="303" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A303" s="39"/>
+      <c r="A303" s="28"/>
     </row>
     <row r="304" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A304" s="39"/>
+      <c r="A304" s="28"/>
     </row>
     <row r="305" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A305" s="39"/>
+      <c r="A305" s="28"/>
     </row>
     <row r="306" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A306" s="39"/>
+      <c r="A306" s="28"/>
     </row>
     <row r="307" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A307" s="39"/>
+      <c r="A307" s="28"/>
     </row>
     <row r="308" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A308" s="39"/>
+      <c r="A308" s="28"/>
     </row>
     <row r="309" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A309" s="39"/>
+      <c r="A309" s="28"/>
     </row>
     <row r="310" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A310" s="39"/>
+      <c r="A310" s="28"/>
     </row>
     <row r="311" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A311" s="39"/>
+      <c r="A311" s="28"/>
     </row>
     <row r="312" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A312" s="39"/>
+      <c r="A312" s="28"/>
     </row>
     <row r="313" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A313" s="39"/>
+      <c r="A313" s="28"/>
     </row>
     <row r="314" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A314" s="39"/>
+      <c r="A314" s="28"/>
     </row>
     <row r="315" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A315" s="39"/>
+      <c r="A315" s="28"/>
     </row>
     <row r="316" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A316" s="39"/>
+      <c r="A316" s="28"/>
     </row>
     <row r="317" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A317" s="39"/>
+      <c r="A317" s="28"/>
     </row>
     <row r="318" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A318" s="39"/>
+      <c r="A318" s="28"/>
     </row>
     <row r="319" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A319" s="39"/>
+      <c r="A319" s="28"/>
     </row>
     <row r="320" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A320" s="39"/>
+      <c r="A320" s="28"/>
     </row>
     <row r="321" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A321" s="39"/>
+      <c r="A321" s="28"/>
     </row>
     <row r="322" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A322" s="39"/>
+      <c r="A322" s="28"/>
     </row>
     <row r="323" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A323" s="39"/>
+      <c r="A323" s="28"/>
     </row>
     <row r="324" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A324" s="39"/>
+      <c r="A324" s="28"/>
     </row>
     <row r="325" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A325" s="39"/>
+      <c r="A325" s="28"/>
     </row>
     <row r="326" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A326" s="39"/>
+      <c r="A326" s="28"/>
     </row>
     <row r="327" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A327" s="39"/>
+      <c r="A327" s="28"/>
     </row>
     <row r="328" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A328" s="39"/>
+      <c r="A328" s="28"/>
     </row>
     <row r="329" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A329" s="39"/>
+      <c r="A329" s="28"/>
     </row>
     <row r="330" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A330" s="39"/>
+      <c r="A330" s="28"/>
     </row>
     <row r="331" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A331" s="39"/>
+      <c r="A331" s="28"/>
     </row>
     <row r="332" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A332" s="39"/>
+      <c r="A332" s="28"/>
     </row>
     <row r="333" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A333" s="39"/>
+      <c r="A333" s="28"/>
     </row>
     <row r="334" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A334" s="39"/>
+      <c r="A334" s="28"/>
     </row>
     <row r="335" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A335" s="39"/>
+      <c r="A335" s="28"/>
     </row>
     <row r="336" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A336" s="39"/>
+      <c r="A336" s="28"/>
     </row>
     <row r="337" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A337" s="39"/>
+      <c r="A337" s="28"/>
     </row>
     <row r="338" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A338" s="39"/>
+      <c r="A338" s="28"/>
     </row>
     <row r="339" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A339" s="39"/>
+      <c r="A339" s="28"/>
     </row>
     <row r="340" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A340" s="39"/>
+      <c r="A340" s="28"/>
     </row>
     <row r="341" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A341" s="39"/>
+      <c r="A341" s="28"/>
     </row>
     <row r="342" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A342" s="39"/>
+      <c r="A342" s="28"/>
     </row>
     <row r="343" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A343" s="39"/>
+      <c r="A343" s="28"/>
     </row>
     <row r="344" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A344" s="39"/>
+      <c r="A344" s="28"/>
     </row>
     <row r="345" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A345" s="39"/>
+      <c r="A345" s="28"/>
     </row>
     <row r="346" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A346" s="39"/>
+      <c r="A346" s="28"/>
     </row>
     <row r="347" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A347" s="39"/>
+      <c r="A347" s="28"/>
     </row>
     <row r="348" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A348" s="39"/>
+      <c r="A348" s="28"/>
     </row>
     <row r="349" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A349" s="39"/>
+      <c r="A349" s="28"/>
     </row>
     <row r="350" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A350" s="39"/>
+      <c r="A350" s="28"/>
     </row>
     <row r="351" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A351" s="39"/>
+      <c r="A351" s="28"/>
     </row>
     <row r="352" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A352" s="39"/>
+      <c r="A352" s="28"/>
     </row>
     <row r="353" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A353" s="39"/>
+      <c r="A353" s="28"/>
     </row>
     <row r="354" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A354" s="39"/>
+      <c r="A354" s="28"/>
     </row>
     <row r="355" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A355" s="39"/>
+      <c r="A355" s="28"/>
     </row>
     <row r="356" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A356" s="39"/>
+      <c r="A356" s="28"/>
     </row>
     <row r="357" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A357" s="39"/>
+      <c r="A357" s="28"/>
     </row>
     <row r="358" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A358" s="39"/>
+      <c r="A358" s="28"/>
     </row>
     <row r="359" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A359" s="39"/>
+      <c r="A359" s="28"/>
     </row>
     <row r="360" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A360" s="39"/>
+      <c r="A360" s="28"/>
     </row>
     <row r="361" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A361" s="39"/>
+      <c r="A361" s="28"/>
     </row>
     <row r="362" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A362" s="39"/>
+      <c r="A362" s="28"/>
     </row>
     <row r="363" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A363" s="39"/>
+      <c r="A363" s="28"/>
     </row>
     <row r="364" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A364" s="39"/>
+      <c r="A364" s="28"/>
     </row>
     <row r="365" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A365" s="39"/>
+      <c r="A365" s="28"/>
     </row>
     <row r="366" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A366" s="39"/>
+      <c r="A366" s="28"/>
     </row>
     <row r="367" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A367" s="39"/>
+      <c r="A367" s="28"/>
     </row>
     <row r="368" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A368" s="39"/>
+      <c r="A368" s="28"/>
     </row>
     <row r="369" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A369" s="39"/>
+      <c r="A369" s="28"/>
     </row>
     <row r="370" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A370" s="39"/>
+      <c r="A370" s="28"/>
     </row>
     <row r="371" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A371" s="39"/>
+      <c r="A371" s="28"/>
     </row>
     <row r="372" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A372" s="39"/>
+      <c r="A372" s="28"/>
     </row>
     <row r="373" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A373" s="39"/>
+      <c r="A373" s="28"/>
     </row>
     <row r="374" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A374" s="39"/>
+      <c r="A374" s="28"/>
     </row>
     <row r="375" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A375" s="39"/>
+      <c r="A375" s="28"/>
     </row>
     <row r="376" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A376" s="39"/>
+      <c r="A376" s="28"/>
     </row>
     <row r="377" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A377" s="39"/>
+      <c r="A377" s="28"/>
     </row>
     <row r="378" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A378" s="39"/>
+      <c r="A378" s="28"/>
     </row>
     <row r="379" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A379" s="39"/>
+      <c r="A379" s="28"/>
     </row>
     <row r="380" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A380" s="39"/>
+      <c r="A380" s="28"/>
     </row>
     <row r="381" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A381" s="39"/>
+      <c r="A381" s="28"/>
     </row>
     <row r="382" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A382" s="39"/>
+      <c r="A382" s="28"/>
     </row>
     <row r="383" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A383" s="39"/>
+      <c r="A383" s="28"/>
     </row>
     <row r="384" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A384" s="39"/>
+      <c r="A384" s="28"/>
     </row>
     <row r="385" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A385" s="39"/>
+      <c r="A385" s="28"/>
     </row>
     <row r="386" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A386" s="39"/>
+      <c r="A386" s="28"/>
     </row>
     <row r="387" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A387" s="39"/>
+      <c r="A387" s="28"/>
     </row>
     <row r="388" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A388" s="39"/>
+      <c r="A388" s="28"/>
     </row>
     <row r="389" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A389" s="39"/>
+      <c r="A389" s="28"/>
     </row>
     <row r="390" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A390" s="39"/>
+      <c r="A390" s="28"/>
     </row>
     <row r="391" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A391" s="39"/>
+      <c r="A391" s="28"/>
     </row>
     <row r="392" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A392" s="39"/>
+      <c r="A392" s="28"/>
     </row>
     <row r="393" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A393" s="39"/>
+      <c r="A393" s="28"/>
     </row>
     <row r="394" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A394" s="39"/>
+      <c r="A394" s="28"/>
     </row>
     <row r="395" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A395" s="39"/>
+      <c r="A395" s="28"/>
     </row>
     <row r="396" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A396" s="39"/>
+      <c r="A396" s="28"/>
     </row>
     <row r="397" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A397" s="39"/>
+      <c r="A397" s="28"/>
     </row>
     <row r="398" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A398" s="39"/>
+      <c r="A398" s="28"/>
     </row>
     <row r="399" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A399" s="39"/>
+      <c r="A399" s="28"/>
     </row>
     <row r="400" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A400" s="39"/>
+      <c r="A400" s="28"/>
     </row>
     <row r="401" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A401" s="39"/>
+      <c r="A401" s="28"/>
     </row>
     <row r="402" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A402" s="39"/>
+      <c r="A402" s="28"/>
     </row>
     <row r="403" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A403" s="39"/>
+      <c r="A403" s="28"/>
     </row>
     <row r="404" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A404" s="39"/>
+      <c r="A404" s="28"/>
     </row>
     <row r="405" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A405" s="39"/>
+      <c r="A405" s="28"/>
     </row>
     <row r="406" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A406" s="39"/>
+      <c r="A406" s="28"/>
     </row>
     <row r="407" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A407" s="39"/>
+      <c r="A407" s="28"/>
     </row>
     <row r="408" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A408" s="39"/>
+      <c r="A408" s="28"/>
     </row>
     <row r="409" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A409" s="39"/>
+      <c r="A409" s="28"/>
     </row>
     <row r="410" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A410" s="39"/>
+      <c r="A410" s="28"/>
     </row>
     <row r="411" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A411" s="39"/>
+      <c r="A411" s="28"/>
     </row>
     <row r="412" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A412" s="39"/>
+      <c r="A412" s="28"/>
     </row>
     <row r="413" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A413" s="39"/>
+      <c r="A413" s="28"/>
     </row>
     <row r="414" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A414" s="39"/>
+      <c r="A414" s="28"/>
     </row>
     <row r="415" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A415" s="39"/>
+      <c r="A415" s="28"/>
     </row>
     <row r="416" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A416" s="39"/>
+      <c r="A416" s="28"/>
     </row>
     <row r="417" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A417" s="39"/>
+      <c r="A417" s="28"/>
     </row>
     <row r="418" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A418" s="39"/>
+      <c r="A418" s="28"/>
     </row>
     <row r="419" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A419" s="39"/>
+      <c r="A419" s="28"/>
     </row>
     <row r="420" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A420" s="39"/>
+      <c r="A420" s="28"/>
     </row>
     <row r="421" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A421" s="39"/>
+      <c r="A421" s="28"/>
     </row>
     <row r="422" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A422" s="39"/>
+      <c r="A422" s="28"/>
     </row>
     <row r="423" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A423" s="39"/>
+      <c r="A423" s="28"/>
     </row>
     <row r="424" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A424" s="39"/>
+      <c r="A424" s="28"/>
     </row>
     <row r="425" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A425" s="39"/>
+      <c r="A425" s="28"/>
     </row>
     <row r="426" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A426" s="39"/>
+      <c r="A426" s="28"/>
     </row>
     <row r="427" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A427" s="39"/>
+      <c r="A427" s="28"/>
     </row>
     <row r="428" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A428" s="39"/>
+      <c r="A428" s="28"/>
     </row>
     <row r="429" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A429" s="39"/>
+      <c r="A429" s="28"/>
     </row>
     <row r="430" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A430" s="39"/>
+      <c r="A430" s="28"/>
     </row>
     <row r="431" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A431" s="39"/>
+      <c r="A431" s="28"/>
     </row>
     <row r="432" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A432" s="39"/>
+      <c r="A432" s="28"/>
     </row>
     <row r="433" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A433" s="39"/>
+      <c r="A433" s="28"/>
     </row>
     <row r="434" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A434" s="39"/>
+      <c r="A434" s="28"/>
     </row>
     <row r="435" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A435" s="39"/>
+      <c r="A435" s="28"/>
     </row>
     <row r="436" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A436" s="39"/>
+      <c r="A436" s="28"/>
     </row>
     <row r="437" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A437" s="39"/>
+      <c r="A437" s="28"/>
     </row>
     <row r="438" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A438" s="39"/>
+      <c r="A438" s="28"/>
     </row>
     <row r="439" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A439" s="39"/>
+      <c r="A439" s="28"/>
     </row>
     <row r="440" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A440" s="39"/>
+      <c r="A440" s="28"/>
     </row>
     <row r="441" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A441" s="39"/>
+      <c r="A441" s="28"/>
     </row>
     <row r="442" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A442" s="39"/>
+      <c r="A442" s="28"/>
     </row>
     <row r="443" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A443" s="39"/>
+      <c r="A443" s="28"/>
     </row>
     <row r="444" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A444" s="39"/>
+      <c r="A444" s="28"/>
     </row>
     <row r="445" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A445" s="39"/>
+      <c r="A445" s="28"/>
     </row>
     <row r="446" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A446" s="39"/>
+      <c r="A446" s="28"/>
     </row>
     <row r="447" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A447" s="39"/>
+      <c r="A447" s="28"/>
     </row>
     <row r="448" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A448" s="39"/>
+      <c r="A448" s="28"/>
     </row>
     <row r="449" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A449" s="39"/>
+      <c r="A449" s="28"/>
     </row>
     <row r="450" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A450" s="39"/>
+      <c r="A450" s="28"/>
     </row>
     <row r="451" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A451" s="39"/>
+      <c r="A451" s="28"/>
     </row>
     <row r="452" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A452" s="39"/>
+      <c r="A452" s="28"/>
     </row>
     <row r="453" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A453" s="39"/>
+      <c r="A453" s="28"/>
     </row>
     <row r="454" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A454" s="39"/>
+      <c r="A454" s="28"/>
     </row>
     <row r="455" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A455" s="39"/>
+      <c r="A455" s="28"/>
     </row>
     <row r="456" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A456" s="39"/>
+      <c r="A456" s="28"/>
     </row>
     <row r="457" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A457" s="39"/>
+      <c r="A457" s="28"/>
     </row>
     <row r="458" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A458" s="39"/>
+      <c r="A458" s="28"/>
     </row>
     <row r="459" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A459" s="39"/>
+      <c r="A459" s="28"/>
     </row>
     <row r="460" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A460" s="39"/>
+      <c r="A460" s="28"/>
     </row>
     <row r="461" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A461" s="39"/>
+      <c r="A461" s="28"/>
     </row>
     <row r="462" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A462" s="39"/>
+      <c r="A462" s="28"/>
     </row>
     <row r="463" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A463" s="39"/>
+      <c r="A463" s="28"/>
     </row>
     <row r="464" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A464" s="39"/>
+      <c r="A464" s="28"/>
     </row>
     <row r="465" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A465" s="39"/>
+      <c r="A465" s="28"/>
     </row>
     <row r="466" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A466" s="39"/>
+      <c r="A466" s="28"/>
     </row>
     <row r="467" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A467" s="39"/>
+      <c r="A467" s="28"/>
     </row>
     <row r="468" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A468" s="39"/>
+      <c r="A468" s="28"/>
     </row>
     <row r="469" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A469" s="39"/>
+      <c r="A469" s="28"/>
     </row>
     <row r="470" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A470" s="39"/>
+      <c r="A470" s="28"/>
     </row>
     <row r="471" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A471" s="39"/>
+      <c r="A471" s="28"/>
     </row>
     <row r="472" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A472" s="39"/>
+      <c r="A472" s="28"/>
     </row>
     <row r="473" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A473" s="39"/>
+      <c r="A473" s="28"/>
     </row>
     <row r="474" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A474" s="39"/>
+      <c r="A474" s="28"/>
     </row>
     <row r="475" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A475" s="39"/>
+      <c r="A475" s="28"/>
     </row>
     <row r="476" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A476" s="39"/>
+      <c r="A476" s="28"/>
     </row>
     <row r="477" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A477" s="39"/>
+      <c r="A477" s="28"/>
     </row>
     <row r="478" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A478" s="39"/>
+      <c r="A478" s="28"/>
     </row>
     <row r="479" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A479" s="39"/>
+      <c r="A479" s="28"/>
     </row>
     <row r="480" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A480" s="39"/>
+      <c r="A480" s="28"/>
     </row>
     <row r="481" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A481" s="39"/>
+      <c r="A481" s="28"/>
     </row>
     <row r="482" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A482" s="39"/>
+      <c r="A482" s="28"/>
     </row>
     <row r="483" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A483" s="39"/>
+      <c r="A483" s="28"/>
     </row>
     <row r="484" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A484" s="39"/>
+      <c r="A484" s="28"/>
     </row>
     <row r="485" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A485" s="39"/>
+      <c r="A485" s="28"/>
     </row>
     <row r="486" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A486" s="39"/>
+      <c r="A486" s="28"/>
     </row>
     <row r="487" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A487" s="39"/>
+      <c r="A487" s="28"/>
     </row>
     <row r="488" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A488" s="39"/>
+      <c r="A488" s="28"/>
     </row>
     <row r="489" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A489" s="39"/>
+      <c r="A489" s="28"/>
     </row>
     <row r="490" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A490" s="39"/>
+      <c r="A490" s="28"/>
     </row>
     <row r="491" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A491" s="39"/>
+      <c r="A491" s="28"/>
     </row>
     <row r="492" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A492" s="39"/>
+      <c r="A492" s="28"/>
     </row>
     <row r="493" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A493" s="39"/>
+      <c r="A493" s="28"/>
     </row>
     <row r="494" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A494" s="39"/>
+      <c r="A494" s="28"/>
     </row>
     <row r="495" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A495" s="39"/>
+      <c r="A495" s="28"/>
     </row>
     <row r="496" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A496" s="39"/>
+      <c r="A496" s="28"/>
     </row>
     <row r="497" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A497" s="39"/>
+      <c r="A497" s="28"/>
     </row>
     <row r="498" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A498" s="39"/>
+      <c r="A498" s="28"/>
     </row>
     <row r="499" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A499" s="39"/>
+      <c r="A499" s="28"/>
     </row>
     <row r="500" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A500" s="39"/>
+      <c r="A500" s="28"/>
     </row>
     <row r="501" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A501" s="39"/>
+      <c r="A501" s="28"/>
     </row>
     <row r="502" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A502" s="39"/>
+      <c r="A502" s="28"/>
     </row>
     <row r="503" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A503" s="39"/>
+      <c r="A503" s="28"/>
     </row>
     <row r="504" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A504" s="39"/>
+      <c r="A504" s="28"/>
     </row>
     <row r="505" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A505" s="39"/>
+      <c r="A505" s="28"/>
     </row>
     <row r="506" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A506" s="39"/>
+      <c r="A506" s="28"/>
     </row>
     <row r="507" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A507" s="39"/>
+      <c r="A507" s="28"/>
     </row>
     <row r="508" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A508" s="39"/>
+      <c r="A508" s="28"/>
     </row>
     <row r="509" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A509" s="39"/>
+      <c r="A509" s="28"/>
     </row>
     <row r="510" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A510" s="39"/>
+      <c r="A510" s="28"/>
     </row>
     <row r="511" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A511" s="39"/>
+      <c r="A511" s="28"/>
     </row>
     <row r="512" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A512" s="39"/>
+      <c r="A512" s="28"/>
     </row>
     <row r="513" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A513" s="39"/>
+      <c r="A513" s="28"/>
     </row>
     <row r="514" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A514" s="39"/>
+      <c r="A514" s="28"/>
     </row>
     <row r="515" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A515" s="39"/>
+      <c r="A515" s="28"/>
     </row>
     <row r="516" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A516" s="39"/>
+      <c r="A516" s="28"/>
     </row>
     <row r="517" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A517" s="39"/>
+      <c r="A517" s="28"/>
     </row>
     <row r="518" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A518" s="39"/>
+      <c r="A518" s="28"/>
     </row>
     <row r="519" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A519" s="39"/>
+      <c r="A519" s="28"/>
     </row>
     <row r="520" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A520" s="39"/>
+      <c r="A520" s="28"/>
     </row>
     <row r="521" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A521" s="39"/>
+      <c r="A521" s="28"/>
     </row>
     <row r="522" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A522" s="39"/>
+      <c r="A522" s="28"/>
     </row>
     <row r="523" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A523" s="39"/>
+      <c r="A523" s="28"/>
     </row>
     <row r="524" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A524" s="39"/>
+      <c r="A524" s="28"/>
     </row>
     <row r="525" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A525" s="39"/>
+      <c r="A525" s="28"/>
     </row>
     <row r="526" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A526" s="39"/>
+      <c r="A526" s="28"/>
     </row>
     <row r="527" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A527" s="39"/>
+      <c r="A527" s="28"/>
     </row>
     <row r="528" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A528" s="39"/>
+      <c r="A528" s="28"/>
     </row>
     <row r="529" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A529" s="39"/>
+      <c r="A529" s="28"/>
     </row>
     <row r="530" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A530" s="39"/>
+      <c r="A530" s="28"/>
     </row>
     <row r="531" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A531" s="39"/>
+      <c r="A531" s="28"/>
     </row>
     <row r="532" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A532" s="39"/>
+      <c r="A532" s="28"/>
     </row>
     <row r="533" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A533" s="39"/>
+      <c r="A533" s="28"/>
     </row>
     <row r="534" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A534" s="39"/>
+      <c r="A534" s="28"/>
     </row>
     <row r="535" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A535" s="39"/>
+      <c r="A535" s="28"/>
     </row>
     <row r="536" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A536" s="39"/>
+      <c r="A536" s="28"/>
     </row>
     <row r="537" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A537" s="39"/>
+      <c r="A537" s="28"/>
     </row>
     <row r="538" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A538" s="39"/>
+      <c r="A538" s="28"/>
     </row>
     <row r="539" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A539" s="39"/>
+      <c r="A539" s="28"/>
     </row>
     <row r="540" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A540" s="39"/>
+      <c r="A540" s="28"/>
     </row>
     <row r="541" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A541" s="39"/>
+      <c r="A541" s="28"/>
     </row>
     <row r="542" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A542" s="39"/>
+      <c r="A542" s="28"/>
     </row>
     <row r="543" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A543" s="39"/>
+      <c r="A543" s="28"/>
     </row>
     <row r="544" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A544" s="39"/>
+      <c r="A544" s="28"/>
     </row>
     <row r="545" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A545" s="39"/>
+      <c r="A545" s="28"/>
     </row>
     <row r="546" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A546" s="39"/>
+      <c r="A546" s="28"/>
     </row>
     <row r="547" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A547" s="39"/>
+      <c r="A547" s="28"/>
     </row>
     <row r="548" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A548" s="39"/>
+      <c r="A548" s="28"/>
     </row>
     <row r="549" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A549" s="39"/>
+      <c r="A549" s="28"/>
     </row>
     <row r="550" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A550" s="39"/>
+      <c r="A550" s="28"/>
     </row>
     <row r="551" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A551" s="39"/>
+      <c r="A551" s="28"/>
     </row>
     <row r="552" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A552" s="39"/>
+      <c r="A552" s="28"/>
     </row>
     <row r="553" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A553" s="39"/>
+      <c r="A553" s="28"/>
     </row>
     <row r="554" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A554" s="39"/>
+      <c r="A554" s="28"/>
     </row>
     <row r="555" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A555" s="39"/>
+      <c r="A555" s="28"/>
     </row>
     <row r="556" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A556" s="39"/>
+      <c r="A556" s="28"/>
     </row>
     <row r="557" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A557" s="39"/>
+      <c r="A557" s="28"/>
     </row>
     <row r="558" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A558" s="39"/>
+      <c r="A558" s="28"/>
     </row>
     <row r="559" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A559" s="39"/>
+      <c r="A559" s="28"/>
     </row>
     <row r="560" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A560" s="39"/>
+      <c r="A560" s="28"/>
     </row>
     <row r="561" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A561" s="39"/>
+      <c r="A561" s="28"/>
     </row>
     <row r="562" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A562" s="39"/>
+      <c r="A562" s="28"/>
     </row>
     <row r="563" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A563" s="39"/>
+      <c r="A563" s="28"/>
     </row>
     <row r="564" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A564" s="39"/>
+      <c r="A564" s="28"/>
     </row>
     <row r="565" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A565" s="39"/>
+      <c r="A565" s="28"/>
     </row>
     <row r="566" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A566" s="39"/>
+      <c r="A566" s="28"/>
     </row>
     <row r="567" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A567" s="39"/>
+      <c r="A567" s="28"/>
     </row>
     <row r="568" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A568" s="39"/>
+      <c r="A568" s="28"/>
     </row>
     <row r="569" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A569" s="39"/>
+      <c r="A569" s="28"/>
     </row>
     <row r="570" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A570" s="39"/>
+      <c r="A570" s="28"/>
     </row>
     <row r="571" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A571" s="39"/>
+      <c r="A571" s="28"/>
     </row>
     <row r="572" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A572" s="39"/>
+      <c r="A572" s="28"/>
     </row>
     <row r="573" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A573" s="39"/>
+      <c r="A573" s="28"/>
     </row>
     <row r="574" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A574" s="39"/>
+      <c r="A574" s="28"/>
     </row>
     <row r="575" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A575" s="39"/>
+      <c r="A575" s="28"/>
     </row>
     <row r="576" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A576" s="39"/>
+      <c r="A576" s="28"/>
     </row>
     <row r="577" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A577" s="39"/>
+      <c r="A577" s="28"/>
     </row>
     <row r="578" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A578" s="39"/>
+      <c r="A578" s="28"/>
     </row>
     <row r="579" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A579" s="39"/>
+      <c r="A579" s="28"/>
     </row>
     <row r="580" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A580" s="39"/>
+      <c r="A580" s="28"/>
     </row>
     <row r="581" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A581" s="39"/>
+      <c r="A581" s="28"/>
     </row>
     <row r="582" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A582" s="39"/>
+      <c r="A582" s="28"/>
     </row>
     <row r="583" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A583" s="39"/>
+      <c r="A583" s="28"/>
     </row>
     <row r="584" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A584" s="39"/>
+      <c r="A584" s="28"/>
     </row>
     <row r="585" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A585" s="39"/>
+      <c r="A585" s="28"/>
     </row>
     <row r="586" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A586" s="39"/>
+      <c r="A586" s="28"/>
     </row>
     <row r="587" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A587" s="39"/>
+      <c r="A587" s="28"/>
     </row>
     <row r="588" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A588" s="39"/>
+      <c r="A588" s="28"/>
     </row>
     <row r="589" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A589" s="39"/>
+      <c r="A589" s="28"/>
     </row>
     <row r="590" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A590" s="39"/>
+      <c r="A590" s="28"/>
     </row>
     <row r="591" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A591" s="39"/>
+      <c r="A591" s="28"/>
     </row>
     <row r="592" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A592" s="39"/>
+      <c r="A592" s="28"/>
     </row>
     <row r="593" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A593" s="39"/>
+      <c r="A593" s="28"/>
     </row>
     <row r="594" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A594" s="39"/>
+      <c r="A594" s="28"/>
     </row>
     <row r="595" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A595" s="39"/>
+      <c r="A595" s="28"/>
     </row>
     <row r="596" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A596" s="39"/>
+      <c r="A596" s="28"/>
     </row>
     <row r="597" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A597" s="39"/>
+      <c r="A597" s="28"/>
     </row>
     <row r="598" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A598" s="39"/>
+      <c r="A598" s="28"/>
     </row>
     <row r="599" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A599" s="39"/>
+      <c r="A599" s="28"/>
     </row>
     <row r="600" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A600" s="39"/>
+      <c r="A600" s="28"/>
     </row>
     <row r="601" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A601" s="39"/>
+      <c r="A601" s="28"/>
     </row>
     <row r="602" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A602" s="39"/>
+      <c r="A602" s="28"/>
     </row>
     <row r="603" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A603" s="39"/>
+      <c r="A603" s="28"/>
     </row>
     <row r="604" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A604" s="39"/>
+      <c r="A604" s="28"/>
     </row>
     <row r="605" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A605" s="39"/>
+      <c r="A605" s="28"/>
     </row>
     <row r="606" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A606" s="39"/>
+      <c r="A606" s="28"/>
     </row>
     <row r="607" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A607" s="39"/>
+      <c r="A607" s="28"/>
     </row>
     <row r="608" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A608" s="39"/>
+      <c r="A608" s="28"/>
     </row>
     <row r="609" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A609" s="39"/>
+      <c r="A609" s="28"/>
     </row>
     <row r="610" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A610" s="39"/>
+      <c r="A610" s="28"/>
     </row>
     <row r="611" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A611" s="39"/>
+      <c r="A611" s="28"/>
     </row>
     <row r="612" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A612" s="39"/>
+      <c r="A612" s="28"/>
     </row>
     <row r="613" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A613" s="39"/>
+      <c r="A613" s="28"/>
     </row>
     <row r="614" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A614" s="39"/>
+      <c r="A614" s="28"/>
     </row>
     <row r="615" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A615" s="39"/>
+      <c r="A615" s="28"/>
     </row>
     <row r="616" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A616" s="39"/>
+      <c r="A616" s="28"/>
     </row>
     <row r="617" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A617" s="39"/>
+      <c r="A617" s="28"/>
     </row>
     <row r="618" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A618" s="39"/>
+      <c r="A618" s="28"/>
     </row>
     <row r="619" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A619" s="39"/>
+      <c r="A619" s="28"/>
     </row>
     <row r="620" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A620" s="39"/>
+      <c r="A620" s="28"/>
     </row>
     <row r="621" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A621" s="39"/>
+      <c r="A621" s="28"/>
     </row>
     <row r="622" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A622" s="39"/>
+      <c r="A622" s="28"/>
     </row>
     <row r="623" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A623" s="39"/>
+      <c r="A623" s="28"/>
     </row>
     <row r="624" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A624" s="39"/>
+      <c r="A624" s="28"/>
     </row>
     <row r="625" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A625" s="39"/>
+      <c r="A625" s="28"/>
     </row>
     <row r="626" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A626" s="39"/>
+      <c r="A626" s="28"/>
     </row>
     <row r="627" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A627" s="39"/>
+      <c r="A627" s="28"/>
     </row>
     <row r="628" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A628" s="39"/>
+      <c r="A628" s="28"/>
     </row>
     <row r="629" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A629" s="39"/>
+      <c r="A629" s="28"/>
     </row>
     <row r="630" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A630" s="39"/>
+      <c r="A630" s="28"/>
     </row>
     <row r="631" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A631" s="39"/>
+      <c r="A631" s="28"/>
     </row>
     <row r="632" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A632" s="39"/>
+      <c r="A632" s="28"/>
     </row>
     <row r="633" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A633" s="39"/>
+      <c r="A633" s="28"/>
     </row>
     <row r="634" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A634" s="39"/>
+      <c r="A634" s="28"/>
     </row>
     <row r="635" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A635" s="39"/>
+      <c r="A635" s="28"/>
     </row>
     <row r="636" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A636" s="39"/>
+      <c r="A636" s="28"/>
     </row>
     <row r="637" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A637" s="39"/>
+      <c r="A637" s="28"/>
     </row>
     <row r="638" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A638" s="39"/>
+      <c r="A638" s="28"/>
     </row>
     <row r="639" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A639" s="39"/>
+      <c r="A639" s="28"/>
     </row>
     <row r="640" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A640" s="39"/>
+      <c r="A640" s="28"/>
     </row>
     <row r="641" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A641" s="39"/>
+      <c r="A641" s="28"/>
     </row>
     <row r="642" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A642" s="39"/>
+      <c r="A642" s="28"/>
     </row>
     <row r="643" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A643" s="39"/>
+      <c r="A643" s="28"/>
     </row>
     <row r="644" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A644" s="39"/>
+      <c r="A644" s="28"/>
     </row>
     <row r="645" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A645" s="39"/>
+      <c r="A645" s="28"/>
     </row>
     <row r="646" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A646" s="39"/>
+      <c r="A646" s="28"/>
     </row>
     <row r="647" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A647" s="39"/>
+      <c r="A647" s="28"/>
     </row>
     <row r="648" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A648" s="39"/>
+      <c r="A648" s="28"/>
     </row>
     <row r="649" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A649" s="39"/>
+      <c r="A649" s="28"/>
     </row>
     <row r="650" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A650" s="39"/>
+      <c r="A650" s="28"/>
     </row>
     <row r="651" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A651" s="39"/>
+      <c r="A651" s="28"/>
     </row>
     <row r="652" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A652" s="39"/>
+      <c r="A652" s="28"/>
     </row>
     <row r="653" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A653" s="39"/>
+      <c r="A653" s="28"/>
     </row>
     <row r="654" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A654" s="39"/>
+      <c r="A654" s="28"/>
     </row>
     <row r="655" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A655" s="39"/>
+      <c r="A655" s="28"/>
     </row>
     <row r="656" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A656" s="39"/>
+      <c r="A656" s="28"/>
     </row>
     <row r="657" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A657" s="39"/>
+      <c r="A657" s="28"/>
     </row>
     <row r="658" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A658" s="39"/>
+      <c r="A658" s="28"/>
     </row>
     <row r="659" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A659" s="39"/>
+      <c r="A659" s="28"/>
     </row>
     <row r="660" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A660" s="39"/>
+      <c r="A660" s="28"/>
     </row>
     <row r="661" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A661" s="39"/>
+      <c r="A661" s="28"/>
     </row>
     <row r="662" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A662" s="39"/>
+      <c r="A662" s="28"/>
     </row>
     <row r="663" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A663" s="39"/>
+      <c r="A663" s="28"/>
     </row>
     <row r="664" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A664" s="39"/>
+      <c r="A664" s="28"/>
     </row>
     <row r="665" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A665" s="39"/>
+      <c r="A665" s="28"/>
     </row>
     <row r="666" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A666" s="39"/>
+      <c r="A666" s="28"/>
     </row>
     <row r="667" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A667" s="39"/>
+      <c r="A667" s="28"/>
     </row>
     <row r="668" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A668" s="39"/>
+      <c r="A668" s="28"/>
     </row>
     <row r="669" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A669" s="39"/>
+      <c r="A669" s="28"/>
     </row>
     <row r="670" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A670" s="39"/>
+      <c r="A670" s="28"/>
     </row>
     <row r="671" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A671" s="39"/>
+      <c r="A671" s="28"/>
     </row>
     <row r="672" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A672" s="39"/>
+      <c r="A672" s="28"/>
     </row>
     <row r="673" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A673" s="39"/>
+      <c r="A673" s="28"/>
     </row>
     <row r="674" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A674" s="39"/>
+      <c r="A674" s="28"/>
     </row>
     <row r="675" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A675" s="39"/>
+      <c r="A675" s="28"/>
     </row>
     <row r="676" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A676" s="39"/>
+      <c r="A676" s="28"/>
     </row>
     <row r="677" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A677" s="39"/>
+      <c r="A677" s="28"/>
     </row>
     <row r="678" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A678" s="39"/>
+      <c r="A678" s="28"/>
     </row>
     <row r="679" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A679" s="39"/>
+      <c r="A679" s="28"/>
     </row>
     <row r="680" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A680" s="39"/>
+      <c r="A680" s="28"/>
     </row>
     <row r="681" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A681" s="39"/>
+      <c r="A681" s="28"/>
     </row>
     <row r="682" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A682" s="39"/>
+      <c r="A682" s="28"/>
     </row>
     <row r="683" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A683" s="39"/>
+      <c r="A683" s="28"/>
     </row>
     <row r="684" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A684" s="39"/>
+      <c r="A684" s="28"/>
     </row>
     <row r="685" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A685" s="39"/>
+      <c r="A685" s="28"/>
     </row>
     <row r="686" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A686" s="39"/>
+      <c r="A686" s="28"/>
     </row>
     <row r="687" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A687" s="39"/>
+      <c r="A687" s="28"/>
     </row>
     <row r="688" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A688" s="39"/>
+      <c r="A688" s="28"/>
     </row>
     <row r="689" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A689" s="39"/>
+      <c r="A689" s="28"/>
     </row>
     <row r="690" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A690" s="39"/>
+      <c r="A690" s="28"/>
     </row>
     <row r="691" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A691" s="39"/>
+      <c r="A691" s="28"/>
     </row>
     <row r="692" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A692" s="39"/>
+      <c r="A692" s="28"/>
     </row>
     <row r="693" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A693" s="39"/>
+      <c r="A693" s="28"/>
     </row>
     <row r="694" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A694" s="39"/>
+      <c r="A694" s="28"/>
     </row>
     <row r="695" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A695" s="39"/>
+      <c r="A695" s="28"/>
     </row>
     <row r="696" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A696" s="39"/>
+      <c r="A696" s="28"/>
     </row>
     <row r="697" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A697" s="39"/>
+      <c r="A697" s="28"/>
     </row>
     <row r="698" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A698" s="39"/>
+      <c r="A698" s="28"/>
     </row>
     <row r="699" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A699" s="39"/>
+      <c r="A699" s="28"/>
     </row>
     <row r="700" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A700" s="39"/>
+      <c r="A700" s="28"/>
     </row>
     <row r="701" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A701" s="39"/>
+      <c r="A701" s="28"/>
     </row>
     <row r="702" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A702" s="39"/>
+      <c r="A702" s="28"/>
     </row>
     <row r="703" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A703" s="39"/>
+      <c r="A703" s="28"/>
     </row>
     <row r="704" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A704" s="39"/>
+      <c r="A704" s="28"/>
     </row>
     <row r="705" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A705" s="39"/>
+      <c r="A705" s="28"/>
     </row>
     <row r="706" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A706" s="39"/>
+      <c r="A706" s="28"/>
     </row>
     <row r="707" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A707" s="39"/>
+      <c r="A707" s="28"/>
     </row>
     <row r="708" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A708" s="39"/>
+      <c r="A708" s="28"/>
     </row>
     <row r="709" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A709" s="39"/>
+      <c r="A709" s="28"/>
     </row>
     <row r="710" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A710" s="39"/>
+      <c r="A710" s="28"/>
     </row>
     <row r="711" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A711" s="39"/>
+      <c r="A711" s="28"/>
     </row>
     <row r="712" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A712" s="39"/>
+      <c r="A712" s="28"/>
     </row>
     <row r="713" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A713" s="39"/>
+      <c r="A713" s="28"/>
     </row>
     <row r="714" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A714" s="39"/>
+      <c r="A714" s="28"/>
     </row>
     <row r="715" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A715" s="39"/>
+      <c r="A715" s="28"/>
     </row>
     <row r="716" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A716" s="39"/>
+      <c r="A716" s="28"/>
     </row>
     <row r="717" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A717" s="39"/>
+      <c r="A717" s="28"/>
     </row>
     <row r="718" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A718" s="39"/>
+      <c r="A718" s="28"/>
     </row>
     <row r="719" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A719" s="39"/>
+      <c r="A719" s="28"/>
     </row>
     <row r="720" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A720" s="39"/>
+      <c r="A720" s="28"/>
     </row>
     <row r="721" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A721" s="39"/>
+      <c r="A721" s="28"/>
     </row>
     <row r="722" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A722" s="39"/>
+      <c r="A722" s="28"/>
     </row>
     <row r="723" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A723" s="39"/>
+      <c r="A723" s="28"/>
     </row>
     <row r="724" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A724" s="39"/>
+      <c r="A724" s="28"/>
     </row>
     <row r="725" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A725" s="39"/>
+      <c r="A725" s="28"/>
     </row>
     <row r="726" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A726" s="39"/>
+      <c r="A726" s="28"/>
     </row>
     <row r="727" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A727" s="39"/>
+      <c r="A727" s="28"/>
     </row>
     <row r="728" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A728" s="39"/>
+      <c r="A728" s="28"/>
     </row>
     <row r="729" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A729" s="39"/>
+      <c r="A729" s="28"/>
     </row>
     <row r="730" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A730" s="39"/>
+      <c r="A730" s="28"/>
     </row>
     <row r="731" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A731" s="39"/>
+      <c r="A731" s="28"/>
     </row>
     <row r="732" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A732" s="39"/>
+      <c r="A732" s="28"/>
     </row>
     <row r="733" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A733" s="39"/>
+      <c r="A733" s="28"/>
     </row>
     <row r="734" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A734" s="39"/>
+      <c r="A734" s="28"/>
     </row>
     <row r="735" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A735" s="39"/>
+      <c r="A735" s="28"/>
     </row>
     <row r="736" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A736" s="39"/>
+      <c r="A736" s="28"/>
     </row>
     <row r="737" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A737" s="39"/>
+      <c r="A737" s="28"/>
     </row>
     <row r="738" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A738" s="39"/>
+      <c r="A738" s="28"/>
     </row>
     <row r="739" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A739" s="39"/>
+      <c r="A739" s="28"/>
     </row>
     <row r="740" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A740" s="39"/>
+      <c r="A740" s="28"/>
     </row>
     <row r="741" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A741" s="39"/>
+      <c r="A741" s="28"/>
     </row>
     <row r="742" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A742" s="39"/>
+      <c r="A742" s="28"/>
     </row>
     <row r="743" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A743" s="39"/>
+      <c r="A743" s="28"/>
     </row>
     <row r="744" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A744" s="39"/>
+      <c r="A744" s="28"/>
     </row>
     <row r="745" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A745" s="39"/>
+      <c r="A745" s="28"/>
     </row>
     <row r="746" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A746" s="39"/>
+      <c r="A746" s="28"/>
     </row>
     <row r="747" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A747" s="39"/>
+      <c r="A747" s="28"/>
     </row>
     <row r="748" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A748" s="39"/>
+      <c r="A748" s="28"/>
     </row>
     <row r="749" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A749" s="39"/>
+      <c r="A749" s="28"/>
     </row>
     <row r="750" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A750" s="39"/>
+      <c r="A750" s="28"/>
     </row>
     <row r="751" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A751" s="39"/>
+      <c r="A751" s="28"/>
     </row>
     <row r="752" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A752" s="39"/>
+      <c r="A752" s="28"/>
     </row>
     <row r="753" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A753" s="39"/>
+      <c r="A753" s="28"/>
     </row>
     <row r="754" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A754" s="39"/>
+      <c r="A754" s="28"/>
     </row>
     <row r="755" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A755" s="39"/>
+      <c r="A755" s="28"/>
     </row>
     <row r="756" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A756" s="39"/>
+      <c r="A756" s="28"/>
     </row>
     <row r="757" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A757" s="39"/>
+      <c r="A757" s="28"/>
     </row>
     <row r="758" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A758" s="39"/>
+      <c r="A758" s="28"/>
     </row>
     <row r="759" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A759" s="39"/>
+      <c r="A759" s="28"/>
     </row>
     <row r="760" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A760" s="39"/>
+      <c r="A760" s="28"/>
     </row>
     <row r="761" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A761" s="39"/>
+      <c r="A761" s="28"/>
     </row>
     <row r="762" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A762" s="39"/>
+      <c r="A762" s="28"/>
     </row>
     <row r="763" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A763" s="39"/>
+      <c r="A763" s="28"/>
     </row>
     <row r="764" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A764" s="39"/>
+      <c r="A764" s="28"/>
     </row>
     <row r="765" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A765" s="39"/>
+      <c r="A765" s="28"/>
     </row>
     <row r="766" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A766" s="39"/>
+      <c r="A766" s="28"/>
     </row>
     <row r="767" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A767" s="39"/>
+      <c r="A767" s="28"/>
     </row>
     <row r="768" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A768" s="39"/>
+      <c r="A768" s="28"/>
     </row>
     <row r="769" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A769" s="39"/>
+      <c r="A769" s="28"/>
     </row>
     <row r="770" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A770" s="39"/>
+      <c r="A770" s="28"/>
     </row>
     <row r="771" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A771" s="39"/>
+      <c r="A771" s="28"/>
     </row>
     <row r="772" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A772" s="39"/>
+      <c r="A772" s="28"/>
     </row>
     <row r="773" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A773" s="39"/>
+      <c r="A773" s="28"/>
     </row>
     <row r="774" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A774" s="39"/>
+      <c r="A774" s="28"/>
     </row>
     <row r="775" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A775" s="39"/>
+      <c r="A775" s="28"/>
     </row>
     <row r="776" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A776" s="39"/>
+      <c r="A776" s="28"/>
     </row>
     <row r="777" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A777" s="39"/>
+      <c r="A777" s="28"/>
     </row>
     <row r="778" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A778" s="39"/>
+      <c r="A778" s="28"/>
     </row>
     <row r="779" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A779" s="39"/>
+      <c r="A779" s="28"/>
     </row>
     <row r="780" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A780" s="39"/>
+      <c r="A780" s="28"/>
     </row>
     <row r="781" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A781" s="39"/>
+      <c r="A781" s="28"/>
     </row>
     <row r="782" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A782" s="39"/>
+      <c r="A782" s="28"/>
     </row>
     <row r="783" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A783" s="39"/>
+      <c r="A783" s="28"/>
     </row>
     <row r="784" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A784" s="39"/>
+      <c r="A784" s="28"/>
     </row>
     <row r="785" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A785" s="39"/>
+      <c r="A785" s="28"/>
     </row>
     <row r="786" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A786" s="39"/>
+      <c r="A786" s="28"/>
     </row>
     <row r="787" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A787" s="39"/>
+      <c r="A787" s="28"/>
     </row>
     <row r="788" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A788" s="39"/>
+      <c r="A788" s="28"/>
     </row>
     <row r="789" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A789" s="39"/>
+      <c r="A789" s="28"/>
     </row>
     <row r="790" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A790" s="39"/>
+      <c r="A790" s="28"/>
     </row>
     <row r="791" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A791" s="39"/>
+      <c r="A791" s="28"/>
     </row>
     <row r="792" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A792" s="39"/>
+      <c r="A792" s="28"/>
     </row>
     <row r="793" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A793" s="39"/>
+      <c r="A793" s="28"/>
     </row>
     <row r="794" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A794" s="39"/>
+      <c r="A794" s="28"/>
     </row>
     <row r="795" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A795" s="39"/>
+      <c r="A795" s="28"/>
     </row>
     <row r="796" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A796" s="39"/>
+      <c r="A796" s="28"/>
     </row>
     <row r="797" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A797" s="39"/>
+      <c r="A797" s="28"/>
     </row>
     <row r="798" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A798" s="39"/>
+      <c r="A798" s="28"/>
     </row>
     <row r="799" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A799" s="39"/>
+      <c r="A799" s="28"/>
     </row>
     <row r="800" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A800" s="39"/>
+      <c r="A800" s="28"/>
     </row>
     <row r="801" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A801" s="39"/>
+      <c r="A801" s="28"/>
     </row>
     <row r="802" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A802" s="39"/>
+      <c r="A802" s="28"/>
     </row>
     <row r="803" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A803" s="39"/>
+      <c r="A803" s="28"/>
     </row>
     <row r="804" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A804" s="39"/>
+      <c r="A804" s="28"/>
     </row>
     <row r="805" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A805" s="39"/>
+      <c r="A805" s="28"/>
     </row>
     <row r="806" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A806" s="39"/>
+      <c r="A806" s="28"/>
     </row>
     <row r="807" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A807" s="39"/>
+      <c r="A807" s="28"/>
     </row>
     <row r="808" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A808" s="39"/>
+      <c r="A808" s="28"/>
     </row>
     <row r="809" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A809" s="39"/>
+      <c r="A809" s="28"/>
     </row>
     <row r="810" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A810" s="39"/>
+      <c r="A810" s="28"/>
     </row>
     <row r="811" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A811" s="39"/>
+      <c r="A811" s="28"/>
     </row>
     <row r="812" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A812" s="39"/>
+      <c r="A812" s="28"/>
     </row>
     <row r="813" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A813" s="39"/>
+      <c r="A813" s="28"/>
     </row>
     <row r="814" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A814" s="39"/>
+      <c r="A814" s="28"/>
     </row>
     <row r="815" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A815" s="39"/>
+      <c r="A815" s="28"/>
     </row>
     <row r="816" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A816" s="39"/>
+      <c r="A816" s="28"/>
     </row>
     <row r="817" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A817" s="39"/>
+      <c r="A817" s="28"/>
     </row>
     <row r="818" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A818" s="39"/>
+      <c r="A818" s="28"/>
     </row>
     <row r="819" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A819" s="39"/>
+      <c r="A819" s="28"/>
     </row>
     <row r="820" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A820" s="39"/>
+      <c r="A820" s="28"/>
     </row>
     <row r="821" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A821" s="39"/>
+      <c r="A821" s="28"/>
     </row>
     <row r="822" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A822" s="39"/>
+      <c r="A822" s="28"/>
     </row>
     <row r="823" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A823" s="39"/>
+      <c r="A823" s="28"/>
     </row>
     <row r="824" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A824" s="39"/>
+      <c r="A824" s="28"/>
     </row>
     <row r="825" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A825" s="39"/>
+      <c r="A825" s="28"/>
     </row>
     <row r="826" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A826" s="39"/>
+      <c r="A826" s="28"/>
     </row>
     <row r="827" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A827" s="39"/>
+      <c r="A827" s="28"/>
     </row>
     <row r="828" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A828" s="39"/>
+      <c r="A828" s="28"/>
     </row>
     <row r="829" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A829" s="39"/>
+      <c r="A829" s="28"/>
     </row>
     <row r="830" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A830" s="39"/>
+      <c r="A830" s="28"/>
     </row>
     <row r="831" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A831" s="39"/>
+      <c r="A831" s="28"/>
     </row>
     <row r="832" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A832" s="39"/>
+      <c r="A832" s="28"/>
     </row>
     <row r="833" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A833" s="39"/>
+      <c r="A833" s="28"/>
     </row>
     <row r="834" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A834" s="39"/>
+      <c r="A834" s="28"/>
     </row>
     <row r="835" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A835" s="39"/>
+      <c r="A835" s="28"/>
     </row>
     <row r="836" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A836" s="39"/>
+      <c r="A836" s="28"/>
     </row>
     <row r="837" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A837" s="39"/>
+      <c r="A837" s="28"/>
     </row>
     <row r="838" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A838" s="39"/>
+      <c r="A838" s="28"/>
     </row>
     <row r="839" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A839" s="39"/>
+      <c r="A839" s="28"/>
     </row>
     <row r="840" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A840" s="39"/>
+      <c r="A840" s="28"/>
     </row>
     <row r="841" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A841" s="39"/>
+      <c r="A841" s="28"/>
     </row>
     <row r="842" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A842" s="39"/>
+      <c r="A842" s="28"/>
     </row>
     <row r="843" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A843" s="39"/>
+      <c r="A843" s="28"/>
     </row>
     <row r="844" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A844" s="39"/>
+      <c r="A844" s="28"/>
     </row>
     <row r="845" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A845" s="39"/>
+      <c r="A845" s="28"/>
     </row>
     <row r="846" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A846" s="39"/>
+      <c r="A846" s="28"/>
     </row>
     <row r="847" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A847" s="39"/>
+      <c r="A847" s="28"/>
     </row>
     <row r="848" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A848" s="39"/>
+      <c r="A848" s="28"/>
     </row>
     <row r="849" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A849" s="39"/>
+      <c r="A849" s="28"/>
     </row>
     <row r="850" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A850" s="39"/>
+      <c r="A850" s="28"/>
     </row>
     <row r="851" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A851" s="39"/>
+      <c r="A851" s="28"/>
     </row>
     <row r="852" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A852" s="39"/>
+      <c r="A852" s="28"/>
     </row>
     <row r="853" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A853" s="39"/>
+      <c r="A853" s="28"/>
     </row>
     <row r="854" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A854" s="39"/>
+      <c r="A854" s="28"/>
     </row>
     <row r="855" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A855" s="39"/>
+      <c r="A855" s="28"/>
     </row>
     <row r="856" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A856" s="39"/>
+      <c r="A856" s="28"/>
     </row>
     <row r="857" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A857" s="39"/>
+      <c r="A857" s="28"/>
     </row>
     <row r="858" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A858" s="39"/>
+      <c r="A858" s="28"/>
     </row>
     <row r="859" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A859" s="39"/>
+      <c r="A859" s="28"/>
     </row>
     <row r="860" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A860" s="39"/>
+      <c r="A860" s="28"/>
     </row>
     <row r="861" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A861" s="39"/>
+      <c r="A861" s="28"/>
     </row>
     <row r="862" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A862" s="39"/>
+      <c r="A862" s="28"/>
     </row>
     <row r="863" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A863" s="39"/>
+      <c r="A863" s="28"/>
     </row>
     <row r="864" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A864" s="39"/>
+      <c r="A864" s="28"/>
     </row>
     <row r="865" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A865" s="39"/>
+      <c r="A865" s="28"/>
     </row>
     <row r="866" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A866" s="39"/>
+      <c r="A866" s="28"/>
     </row>
     <row r="867" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A867" s="39"/>
+      <c r="A867" s="28"/>
     </row>
     <row r="868" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A868" s="39"/>
+      <c r="A868" s="28"/>
     </row>
     <row r="869" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A869" s="39"/>
+      <c r="A869" s="28"/>
     </row>
     <row r="870" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A870" s="39"/>
+      <c r="A870" s="28"/>
     </row>
     <row r="871" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A871" s="39"/>
+      <c r="A871" s="28"/>
     </row>
     <row r="872" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A872" s="39"/>
+      <c r="A872" s="28"/>
     </row>
     <row r="873" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A873" s="39"/>
+      <c r="A873" s="28"/>
     </row>
     <row r="874" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A874" s="39"/>
+      <c r="A874" s="28"/>
     </row>
     <row r="875" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A875" s="39"/>
+      <c r="A875" s="28"/>
     </row>
     <row r="876" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A876" s="39"/>
+      <c r="A876" s="28"/>
     </row>
     <row r="877" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A877" s="39"/>
+      <c r="A877" s="28"/>
     </row>
     <row r="878" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A878" s="39"/>
+      <c r="A878" s="28"/>
     </row>
     <row r="879" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A879" s="39"/>
+      <c r="A879" s="28"/>
     </row>
     <row r="880" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A880" s="39"/>
+      <c r="A880" s="28"/>
     </row>
     <row r="881" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A881" s="39"/>
+      <c r="A881" s="28"/>
     </row>
     <row r="882" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A882" s="39"/>
+      <c r="A882" s="28"/>
     </row>
     <row r="883" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A883" s="39"/>
+      <c r="A883" s="28"/>
     </row>
     <row r="884" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A884" s="39"/>
+      <c r="A884" s="28"/>
     </row>
     <row r="885" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A885" s="39"/>
+      <c r="A885" s="28"/>
     </row>
     <row r="886" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A886" s="39"/>
+      <c r="A886" s="28"/>
     </row>
     <row r="887" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A887" s="39"/>
+      <c r="A887" s="28"/>
     </row>
     <row r="888" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A888" s="39"/>
+      <c r="A888" s="28"/>
     </row>
     <row r="889" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A889" s="39"/>
+      <c r="A889" s="28"/>
     </row>
     <row r="890" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A890" s="39"/>
+      <c r="A890" s="28"/>
     </row>
     <row r="891" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A891" s="39"/>
+      <c r="A891" s="28"/>
     </row>
     <row r="892" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A892" s="39"/>
+      <c r="A892" s="28"/>
     </row>
     <row r="893" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A893" s="39"/>
+      <c r="A893" s="28"/>
     </row>
     <row r="894" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A894" s="39"/>
+      <c r="A894" s="28"/>
     </row>
     <row r="895" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A895" s="39"/>
+      <c r="A895" s="28"/>
     </row>
     <row r="896" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A896" s="39"/>
+      <c r="A896" s="28"/>
     </row>
     <row r="897" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A897" s="39"/>
+      <c r="A897" s="28"/>
     </row>
     <row r="898" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A898" s="39"/>
+      <c r="A898" s="28"/>
     </row>
     <row r="899" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A899" s="39"/>
+      <c r="A899" s="28"/>
     </row>
     <row r="900" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A900" s="39"/>
+      <c r="A900" s="28"/>
     </row>
     <row r="901" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A901" s="39"/>
+      <c r="A901" s="28"/>
     </row>
     <row r="902" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A902" s="39"/>
+      <c r="A902" s="28"/>
     </row>
     <row r="903" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A903" s="39"/>
+      <c r="A903" s="28"/>
     </row>
     <row r="904" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A904" s="39"/>
+      <c r="A904" s="28"/>
     </row>
     <row r="905" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A905" s="39"/>
+      <c r="A905" s="28"/>
     </row>
     <row r="906" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A906" s="39"/>
+      <c r="A906" s="28"/>
     </row>
     <row r="907" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A907" s="39"/>
+      <c r="A907" s="28"/>
     </row>
     <row r="908" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A908" s="39"/>
+      <c r="A908" s="28"/>
     </row>
     <row r="909" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A909" s="39"/>
+      <c r="A909" s="28"/>
     </row>
     <row r="910" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A910" s="39"/>
+      <c r="A910" s="28"/>
     </row>
     <row r="911" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A911" s="39"/>
+      <c r="A911" s="28"/>
     </row>
     <row r="912" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A912" s="39"/>
+      <c r="A912" s="28"/>
     </row>
     <row r="913" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A913" s="39"/>
+      <c r="A913" s="28"/>
     </row>
     <row r="914" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A914" s="39"/>
+      <c r="A914" s="28"/>
     </row>
     <row r="915" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A915" s="39"/>
+      <c r="A915" s="28"/>
     </row>
     <row r="916" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A916" s="39"/>
+      <c r="A916" s="28"/>
     </row>
     <row r="917" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A917" s="39"/>
+      <c r="A917" s="28"/>
     </row>
     <row r="918" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A918" s="39"/>
+      <c r="A918" s="28"/>
     </row>
     <row r="919" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A919" s="39"/>
+      <c r="A919" s="28"/>
     </row>
     <row r="920" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A920" s="39"/>
+      <c r="A920" s="28"/>
     </row>
     <row r="921" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A921" s="39"/>
+      <c r="A921" s="28"/>
     </row>
     <row r="922" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A922" s="39"/>
+      <c r="A922" s="28"/>
     </row>
     <row r="923" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A923" s="39"/>
+      <c r="A923" s="28"/>
     </row>
     <row r="924" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A924" s="39"/>
+      <c r="A924" s="28"/>
     </row>
     <row r="925" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A925" s="39"/>
+      <c r="A925" s="28"/>
     </row>
     <row r="926" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A926" s="39"/>
+      <c r="A926" s="28"/>
     </row>
     <row r="927" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A927" s="39"/>
+      <c r="A927" s="28"/>
     </row>
     <row r="928" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A928" s="39"/>
+      <c r="A928" s="28"/>
     </row>
     <row r="929" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A929" s="39"/>
+      <c r="A929" s="28"/>
     </row>
     <row r="930" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A930" s="39"/>
+      <c r="A930" s="28"/>
     </row>
     <row r="931" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A931" s="39"/>
+      <c r="A931" s="28"/>
     </row>
     <row r="932" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A932" s="39"/>
+      <c r="A932" s="28"/>
     </row>
     <row r="933" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A933" s="39"/>
+      <c r="A933" s="28"/>
     </row>
     <row r="934" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A934" s="39"/>
+      <c r="A934" s="28"/>
     </row>
     <row r="935" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A935" s="39"/>
+      <c r="A935" s="28"/>
     </row>
     <row r="936" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A936" s="39"/>
+      <c r="A936" s="28"/>
     </row>
     <row r="937" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A937" s="39"/>
+      <c r="A937" s="28"/>
     </row>
     <row r="938" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A938" s="39"/>
+      <c r="A938" s="28"/>
     </row>
     <row r="939" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A939" s="39"/>
+      <c r="A939" s="28"/>
     </row>
     <row r="940" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A940" s="39"/>
+      <c r="A940" s="28"/>
     </row>
     <row r="941" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A941" s="39"/>
+      <c r="A941" s="28"/>
     </row>
     <row r="942" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A942" s="39"/>
+      <c r="A942" s="28"/>
     </row>
     <row r="943" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A943" s="39"/>
+      <c r="A943" s="28"/>
     </row>
     <row r="944" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A944" s="39"/>
+      <c r="A944" s="28"/>
     </row>
     <row r="945" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A945" s="39"/>
+      <c r="A945" s="28"/>
     </row>
     <row r="946" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A946" s="39"/>
+      <c r="A946" s="28"/>
     </row>
     <row r="947" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A947" s="39"/>
+      <c r="A947" s="28"/>
     </row>
     <row r="948" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A948" s="39"/>
+      <c r="A948" s="28"/>
     </row>
     <row r="949" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A949" s="39"/>
+      <c r="A949" s="28"/>
     </row>
     <row r="950" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A950" s="39"/>
+      <c r="A950" s="28"/>
     </row>
     <row r="951" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A951" s="39"/>
+      <c r="A951" s="28"/>
     </row>
     <row r="952" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A952" s="39"/>
+      <c r="A952" s="28"/>
     </row>
     <row r="953" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A953" s="39"/>
+      <c r="A953" s="28"/>
     </row>
     <row r="954" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A954" s="39"/>
+      <c r="A954" s="28"/>
     </row>
     <row r="955" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A955" s="39"/>
+      <c r="A955" s="28"/>
     </row>
     <row r="956" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A956" s="39"/>
+      <c r="A956" s="28"/>
     </row>
     <row r="957" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A957" s="39"/>
+      <c r="A957" s="28"/>
     </row>
     <row r="958" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A958" s="39"/>
+      <c r="A958" s="28"/>
     </row>
     <row r="959" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A959" s="39"/>
+      <c r="A959" s="28"/>
     </row>
     <row r="960" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A960" s="39"/>
+      <c r="A960" s="28"/>
     </row>
     <row r="961" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A961" s="39"/>
+      <c r="A961" s="28"/>
     </row>
     <row r="962" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A962" s="39"/>
+      <c r="A962" s="28"/>
     </row>
     <row r="963" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A963" s="39"/>
+      <c r="A963" s="28"/>
     </row>
     <row r="964" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A964" s="39"/>
+      <c r="A964" s="28"/>
     </row>
     <row r="965" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A965" s="39"/>
+      <c r="A965" s="28"/>
     </row>
     <row r="966" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A966" s="39"/>
+      <c r="A966" s="28"/>
     </row>
     <row r="967" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A967" s="39"/>
+      <c r="A967" s="28"/>
     </row>
     <row r="968" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A968" s="39"/>
+      <c r="A968" s="28"/>
     </row>
     <row r="969" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A969" s="39"/>
+      <c r="A969" s="28"/>
     </row>
     <row r="970" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A970" s="39"/>
+      <c r="A970" s="28"/>
     </row>
     <row r="971" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A971" s="39"/>
+      <c r="A971" s="28"/>
     </row>
     <row r="972" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A972" s="39"/>
+      <c r="A972" s="28"/>
     </row>
     <row r="973" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A973" s="39"/>
+      <c r="A973" s="28"/>
     </row>
     <row r="974" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A974" s="39"/>
+      <c r="A974" s="28"/>
     </row>
     <row r="975" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A975" s="39"/>
+      <c r="A975" s="28"/>
     </row>
     <row r="976" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A976" s="39"/>
+      <c r="A976" s="28"/>
     </row>
     <row r="977" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A977" s="39"/>
+      <c r="A977" s="28"/>
     </row>
     <row r="978" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A978" s="39"/>
+      <c r="A978" s="28"/>
     </row>
     <row r="979" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A979" s="39"/>
+      <c r="A979" s="28"/>
     </row>
     <row r="980" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A980" s="39"/>
+      <c r="A980" s="28"/>
     </row>
     <row r="981" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A981" s="39"/>
+      <c r="A981" s="28"/>
     </row>
     <row r="982" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A982" s="39"/>
+      <c r="A982" s="28"/>
     </row>
     <row r="983" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A983" s="39"/>
+      <c r="A983" s="28"/>
     </row>
     <row r="984" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A984" s="39"/>
+      <c r="A984" s="28"/>
     </row>
     <row r="985" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A985" s="39"/>
+      <c r="A985" s="28"/>
     </row>
     <row r="986" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A986" s="39"/>
+      <c r="A986" s="28"/>
     </row>
     <row r="987" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A987" s="39"/>
+      <c r="A987" s="28"/>
     </row>
     <row r="988" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A988" s="39"/>
+      <c r="A988" s="28"/>
     </row>
     <row r="989" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A989" s="39"/>
+      <c r="A989" s="28"/>
     </row>
     <row r="990" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A990" s="39"/>
+      <c r="A990" s="28"/>
     </row>
     <row r="991" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A991" s="39"/>
+      <c r="A991" s="28"/>
     </row>
     <row r="992" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A992" s="39"/>
+      <c r="A992" s="28"/>
     </row>
     <row r="993" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A993" s="39"/>
+      <c r="A993" s="28"/>
     </row>
     <row r="994" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A994" s="39"/>
+      <c r="A994" s="28"/>
     </row>
     <row r="995" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A995" s="39"/>
+      <c r="A995" s="28"/>
     </row>
     <row r="996" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A996" s="39"/>
+      <c r="A996" s="28"/>
     </row>
     <row r="997" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A997" s="39"/>
+      <c r="A997" s="28"/>
     </row>
     <row r="998" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A998" s="39"/>
+      <c r="A998" s="28"/>
     </row>
     <row r="999" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A999" s="39"/>
+      <c r="A999" s="28"/>
     </row>
     <row r="1000" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A1000" s="39"/>
+      <c r="A1000" s="28"/>
     </row>
     <row r="1001" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A1001" s="39"/>
+      <c r="A1001" s="28"/>
     </row>
     <row r="1002" spans="1:1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A1002" s="39"/>
+      <c r="A1002" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/results/results_processed.xlsx
+++ b/results/results_processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mak/Documents/thesis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B8FADE-06C3-8245-A120-5A2932CD2634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3947038C-E496-2042-9872-F6CA037EE4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="p3" sheetId="5" r:id="rId5"/>
     <sheet name="p5" sheetId="6" r:id="rId6"/>
     <sheet name="stats" sheetId="7" r:id="rId7"/>
+    <sheet name="stats in %" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="583">
   <si>
     <t>Усвоение 1</t>
   </si>
@@ -1882,6 +1883,33 @@
   </si>
   <si>
     <t>SD_mean</t>
+  </si>
+  <si>
+    <t>AFC accuracy, %</t>
+  </si>
+  <si>
+    <t>AFC RT, s</t>
+  </si>
+  <si>
+    <t>Recall accuracy, %</t>
+  </si>
+  <si>
+    <t>Recall first-key RT, s</t>
+  </si>
+  <si>
+    <t>Recall last-key RT, s</t>
+  </si>
+  <si>
+    <t>Recognition accuracy, %</t>
+  </si>
+  <si>
+    <t>Recognition RT, s</t>
+  </si>
+  <si>
+    <t>Sem. dec. accuracy, %</t>
+  </si>
+  <si>
+    <t>Sem. dec. RT, s</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2197,6 +2225,7 @@
     <xf numFmtId="2" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -23371,8 +23400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:M21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27410,4 +27439,742 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0822233-7CAC-5F47-ACEF-010C389E4C08}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="71" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="71">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71">
+        <v>1</v>
+      </c>
+      <c r="F2" s="71">
+        <v>2</v>
+      </c>
+      <c r="H2" s="71">
+        <v>3</v>
+      </c>
+      <c r="J2" s="71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
+        <v>574</v>
+      </c>
+      <c r="B3" s="71">
+        <v>82.5</v>
+      </c>
+      <c r="D3" s="71">
+        <v>60</v>
+      </c>
+      <c r="F3" s="71">
+        <v>90</v>
+      </c>
+      <c r="H3" s="71">
+        <v>82.5</v>
+      </c>
+      <c r="J3" s="71">
+        <v>80</v>
+      </c>
+      <c r="L3" s="71">
+        <v>79</v>
+      </c>
+      <c r="M3" s="71">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="71">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C4" s="71">
+        <v>0.62</v>
+      </c>
+      <c r="D4" s="71">
+        <v>2.13</v>
+      </c>
+      <c r="E4" s="71">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="71">
+        <v>1.79</v>
+      </c>
+      <c r="G4" s="71">
+        <v>0.39</v>
+      </c>
+      <c r="H4" s="71">
+        <v>1.88</v>
+      </c>
+      <c r="I4" s="71">
+        <v>0.38</v>
+      </c>
+      <c r="J4" s="71">
+        <v>2.09</v>
+      </c>
+      <c r="K4" s="71">
+        <v>0.51</v>
+      </c>
+      <c r="L4" s="71">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M4" s="71">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="71" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" s="71">
+        <v>40</v>
+      </c>
+      <c r="D5" s="71">
+        <v>0</v>
+      </c>
+      <c r="F5" s="71">
+        <v>52.5</v>
+      </c>
+      <c r="H5" s="71">
+        <v>17.5</v>
+      </c>
+      <c r="J5" s="71">
+        <v>10</v>
+      </c>
+      <c r="L5" s="71">
+        <v>24</v>
+      </c>
+      <c r="M5" s="71">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="71" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" s="71">
+        <v>1.63</v>
+      </c>
+      <c r="C6" s="71">
+        <v>0.99</v>
+      </c>
+      <c r="D6" s="71">
+        <v>1.59</v>
+      </c>
+      <c r="E6" s="71">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F6" s="71">
+        <v>2.62</v>
+      </c>
+      <c r="G6" s="71">
+        <v>1.53</v>
+      </c>
+      <c r="H6" s="71">
+        <v>1.95</v>
+      </c>
+      <c r="I6" s="71">
+        <v>0.71</v>
+      </c>
+      <c r="J6" s="71">
+        <v>3.94</v>
+      </c>
+      <c r="K6" s="71">
+        <v>1.87</v>
+      </c>
+      <c r="L6" s="71">
+        <v>2.35</v>
+      </c>
+      <c r="M6" s="71">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="71" t="s">
+        <v>578</v>
+      </c>
+      <c r="B7" s="71">
+        <v>3.76</v>
+      </c>
+      <c r="C7" s="71">
+        <v>0.88</v>
+      </c>
+      <c r="D7" s="71">
+        <v>2.38</v>
+      </c>
+      <c r="E7" s="71">
+        <v>1.57</v>
+      </c>
+      <c r="F7" s="71">
+        <v>5.15</v>
+      </c>
+      <c r="G7" s="71">
+        <v>1.28</v>
+      </c>
+      <c r="H7" s="71">
+        <v>4.75</v>
+      </c>
+      <c r="I7" s="71">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J7" s="71">
+        <v>6.86</v>
+      </c>
+      <c r="K7" s="71">
+        <v>0.59</v>
+      </c>
+      <c r="L7" s="71">
+        <v>4.58</v>
+      </c>
+      <c r="M7" s="71">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="71" t="s">
+        <v>579</v>
+      </c>
+      <c r="B8" s="71">
+        <v>55</v>
+      </c>
+      <c r="D8" s="71">
+        <v>50</v>
+      </c>
+      <c r="F8" s="71">
+        <v>90</v>
+      </c>
+      <c r="H8" s="71">
+        <v>90</v>
+      </c>
+      <c r="J8" s="71">
+        <v>62.5</v>
+      </c>
+      <c r="L8" s="71">
+        <v>69.5</v>
+      </c>
+      <c r="M8" s="71">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="71" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" s="71">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C9" s="71">
+        <v>0.53</v>
+      </c>
+      <c r="D9" s="71">
+        <v>0.94</v>
+      </c>
+      <c r="E9" s="71">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F9" s="71">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G9" s="71">
+        <v>0.21</v>
+      </c>
+      <c r="H9" s="71">
+        <v>1.62</v>
+      </c>
+      <c r="I9" s="71">
+        <v>0.37</v>
+      </c>
+      <c r="J9" s="71">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K9" s="71">
+        <v>0.54</v>
+      </c>
+      <c r="L9" s="71">
+        <v>1.68</v>
+      </c>
+      <c r="M9" s="71">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="71" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="71">
+        <v>25</v>
+      </c>
+      <c r="D10" s="71">
+        <v>0</v>
+      </c>
+      <c r="F10" s="71">
+        <v>32.5</v>
+      </c>
+      <c r="H10" s="71">
+        <v>20</v>
+      </c>
+      <c r="J10" s="71">
+        <v>2.5</v>
+      </c>
+      <c r="L10" s="71">
+        <v>16</v>
+      </c>
+      <c r="M10" s="71">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="71" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="71">
+        <v>4.71</v>
+      </c>
+      <c r="C11" s="71">
+        <v>1.79</v>
+      </c>
+      <c r="D11" s="71">
+        <v>0.73</v>
+      </c>
+      <c r="E11" s="71">
+        <v>0.67</v>
+      </c>
+      <c r="F11" s="71">
+        <v>2.37</v>
+      </c>
+      <c r="G11" s="71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11" s="71">
+        <v>1.79</v>
+      </c>
+      <c r="I11" s="71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J11" s="71">
+        <v>4.49</v>
+      </c>
+      <c r="K11" s="71">
+        <v>2.04</v>
+      </c>
+      <c r="L11" s="71">
+        <v>2.82</v>
+      </c>
+      <c r="M11" s="71">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="71" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="71">
+        <v>5.76</v>
+      </c>
+      <c r="C12" s="71">
+        <v>1.32</v>
+      </c>
+      <c r="D12" s="71">
+        <v>1.34</v>
+      </c>
+      <c r="E12" s="71">
+        <v>1.6</v>
+      </c>
+      <c r="F12" s="71">
+        <v>4.37</v>
+      </c>
+      <c r="G12" s="71">
+        <v>1.67</v>
+      </c>
+      <c r="H12" s="71">
+        <v>3.91</v>
+      </c>
+      <c r="I12" s="71">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J12" s="71">
+        <v>6.99</v>
+      </c>
+      <c r="K12" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="71">
+        <v>4.47</v>
+      </c>
+      <c r="M12" s="71">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="71" t="s">
+        <v>581</v>
+      </c>
+      <c r="B13" s="71">
+        <v>70</v>
+      </c>
+      <c r="D13" s="71">
+        <v>60</v>
+      </c>
+      <c r="F13" s="71">
+        <v>77.5</v>
+      </c>
+      <c r="H13" s="71">
+        <v>80</v>
+      </c>
+      <c r="J13" s="71">
+        <v>85</v>
+      </c>
+      <c r="L13" s="71">
+        <v>74.5</v>
+      </c>
+      <c r="M13" s="71">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="71" t="s">
+        <v>582</v>
+      </c>
+      <c r="B14" s="71">
+        <v>3.02</v>
+      </c>
+      <c r="C14" s="71">
+        <v>0.48</v>
+      </c>
+      <c r="D14" s="71">
+        <v>1.04</v>
+      </c>
+      <c r="E14" s="71">
+        <v>0.39</v>
+      </c>
+      <c r="F14" s="71">
+        <v>1.94</v>
+      </c>
+      <c r="G14" s="71">
+        <v>0.74</v>
+      </c>
+      <c r="H14" s="71">
+        <v>1.72</v>
+      </c>
+      <c r="I14" s="71">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="71">
+        <v>2.14</v>
+      </c>
+      <c r="K14" s="71">
+        <v>0.84</v>
+      </c>
+      <c r="L14" s="71">
+        <v>1.96</v>
+      </c>
+      <c r="M14" s="71">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="71" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" s="71">
+        <v>80</v>
+      </c>
+      <c r="D15" s="71">
+        <v>52.5</v>
+      </c>
+      <c r="F15" s="71">
+        <v>77.5</v>
+      </c>
+      <c r="H15" s="71">
+        <v>90</v>
+      </c>
+      <c r="J15" s="71">
+        <v>62.5</v>
+      </c>
+      <c r="L15" s="71">
+        <v>72.5</v>
+      </c>
+      <c r="M15" s="71">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="71" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" s="71">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C16" s="71">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D16" s="71">
+        <v>1.53</v>
+      </c>
+      <c r="E16" s="71">
+        <v>0.43</v>
+      </c>
+      <c r="F16" s="71">
+        <v>1.3</v>
+      </c>
+      <c r="G16" s="71">
+        <v>0.39</v>
+      </c>
+      <c r="H16" s="71">
+        <v>1.53</v>
+      </c>
+      <c r="I16" s="71">
+        <v>0.34</v>
+      </c>
+      <c r="J16" s="71">
+        <v>2.31</v>
+      </c>
+      <c r="K16" s="71">
+        <v>0.49</v>
+      </c>
+      <c r="L16" s="71">
+        <v>1.82</v>
+      </c>
+      <c r="M16" s="71">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="71" t="s">
+        <v>576</v>
+      </c>
+      <c r="B17" s="71">
+        <v>30</v>
+      </c>
+      <c r="D17" s="71">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="71">
+        <v>35</v>
+      </c>
+      <c r="H17" s="71">
+        <v>15</v>
+      </c>
+      <c r="J17" s="71">
+        <v>5</v>
+      </c>
+      <c r="L17" s="71">
+        <v>17.5</v>
+      </c>
+      <c r="M17" s="71">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="71" t="s">
+        <v>577</v>
+      </c>
+      <c r="B18" s="71">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C18" s="71">
+        <v>1.87</v>
+      </c>
+      <c r="D18" s="71">
+        <v>0.97</v>
+      </c>
+      <c r="E18" s="71">
+        <v>0.65</v>
+      </c>
+      <c r="F18" s="71">
+        <v>2.1</v>
+      </c>
+      <c r="G18" s="71">
+        <v>1.23</v>
+      </c>
+      <c r="H18" s="71">
+        <v>1.67</v>
+      </c>
+      <c r="I18" s="71">
+        <v>0.43</v>
+      </c>
+      <c r="J18" s="71">
+        <v>3.47</v>
+      </c>
+      <c r="K18" s="71">
+        <v>1.96</v>
+      </c>
+      <c r="L18" s="71">
+        <v>2.52</v>
+      </c>
+      <c r="M18" s="71">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="71" t="s">
+        <v>578</v>
+      </c>
+      <c r="B19" s="71">
+        <v>5.37</v>
+      </c>
+      <c r="C19" s="71">
+        <v>1.56</v>
+      </c>
+      <c r="D19" s="71">
+        <v>1.79</v>
+      </c>
+      <c r="E19" s="71">
+        <v>1.82</v>
+      </c>
+      <c r="F19" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="G19" s="71">
+        <v>1.55</v>
+      </c>
+      <c r="H19" s="71">
+        <v>3.93</v>
+      </c>
+      <c r="I19" s="71">
+        <v>1.19</v>
+      </c>
+      <c r="J19" s="71">
+        <v>5.01</v>
+      </c>
+      <c r="K19" s="71">
+        <v>1.98</v>
+      </c>
+      <c r="L19" s="71">
+        <v>3.98</v>
+      </c>
+      <c r="M19" s="71">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="71" t="s">
+        <v>581</v>
+      </c>
+      <c r="B20" s="71">
+        <v>70</v>
+      </c>
+      <c r="D20" s="71">
+        <v>60</v>
+      </c>
+      <c r="F20" s="71">
+        <v>95</v>
+      </c>
+      <c r="H20" s="71">
+        <v>77.5</v>
+      </c>
+      <c r="J20" s="71">
+        <v>70</v>
+      </c>
+      <c r="L20" s="71">
+        <v>74.5</v>
+      </c>
+      <c r="M20" s="71">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="71" t="s">
+        <v>582</v>
+      </c>
+      <c r="B21" s="71">
+        <v>2.65</v>
+      </c>
+      <c r="C21" s="71">
+        <v>0.65</v>
+      </c>
+      <c r="D21" s="71">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="71">
+        <v>0.52</v>
+      </c>
+      <c r="F21" s="71">
+        <v>1.48</v>
+      </c>
+      <c r="G21" s="71">
+        <v>0.47</v>
+      </c>
+      <c r="H21" s="71">
+        <v>1.31</v>
+      </c>
+      <c r="I21" s="71">
+        <v>0.38</v>
+      </c>
+      <c r="J21" s="71">
+        <v>1.88</v>
+      </c>
+      <c r="K21" s="71">
+        <v>0.86</v>
+      </c>
+      <c r="L21" s="71">
+        <v>1.61</v>
+      </c>
+      <c r="M21" s="71">
+        <v>0.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/results_processed.xlsx
+++ b/results/results_processed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mak/Documents/thesis/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mak/Desktop/novel_words/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3947038C-E496-2042-9872-F6CA037EE4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F46A14-9FC1-A449-8D31-7F91107FACA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
